--- a/测试数据/xls/40.xlsx
+++ b/测试数据/xls/40.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\13\测试数据\xls\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="14955" windowHeight="9120"/>
   </bookViews>
@@ -20,7 +25,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">人力资源管理!$1:$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">市场营销!$1:$3</definedName>
   </definedNames>
-  <calcPr calcId="125725" fullCalcOnLoad="1"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -4400,8 +4405,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -4877,11 +4882,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4923,7 +4936,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4955,9 +4968,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4989,6 +5003,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5164,14 +5179,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F294"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G294"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.375" bestFit="1" customWidth="1"/>
@@ -5181,7 +5196,7 @@
     <col min="6" max="6" width="22.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="50" t="s">
         <v>41</v>
       </c>
@@ -5201,7 +5216,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="24">
+    <row r="2" spans="1:7" ht="24" x14ac:dyDescent="0.15">
       <c r="A2" s="18">
         <v>70</v>
       </c>
@@ -5220,8 +5235,11 @@
       <c r="F2" s="58" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="7">
         <v>26</v>
       </c>
@@ -5241,7 +5259,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="7">
         <v>34</v>
       </c>
@@ -5261,7 +5279,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="18">
         <v>27</v>
       </c>
@@ -5281,7 +5299,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="24">
+    <row r="6" spans="1:7" ht="24" x14ac:dyDescent="0.15">
       <c r="A6" s="7">
         <v>2</v>
       </c>
@@ -5301,7 +5319,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="18">
         <v>41</v>
       </c>
@@ -5321,7 +5339,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="24">
+    <row r="8" spans="1:7" ht="24" x14ac:dyDescent="0.15">
       <c r="A8" s="18">
         <v>43</v>
       </c>
@@ -5341,7 +5359,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="18">
         <v>48</v>
       </c>
@@ -5361,7 +5379,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="18">
         <v>49</v>
       </c>
@@ -5381,7 +5399,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="18">
         <v>68</v>
       </c>
@@ -5401,7 +5419,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="18">
         <v>7</v>
       </c>
@@ -5421,7 +5439,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="7">
         <v>8</v>
       </c>
@@ -5441,7 +5459,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="7">
         <v>35</v>
       </c>
@@ -5461,7 +5479,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="7">
         <v>25</v>
       </c>
@@ -5481,7 +5499,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="24">
+    <row r="16" spans="1:7" ht="24" x14ac:dyDescent="0.15">
       <c r="A16" s="18">
         <v>9</v>
       </c>
@@ -5501,7 +5519,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="18">
         <v>30</v>
       </c>
@@ -5521,7 +5539,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="18">
         <v>72</v>
       </c>
@@ -5541,7 +5559,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="18">
         <v>85</v>
       </c>
@@ -5561,7 +5579,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="18">
         <v>24</v>
       </c>
@@ -5581,7 +5599,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="18">
         <v>29</v>
       </c>
@@ -5601,7 +5619,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="18">
         <v>55</v>
       </c>
@@ -5621,7 +5639,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="7">
         <v>44</v>
       </c>
@@ -5641,7 +5659,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="18">
         <v>28</v>
       </c>
@@ -5661,7 +5679,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="7">
         <v>24</v>
       </c>
@@ -5681,7 +5699,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="24">
+    <row r="26" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A26" s="18">
         <v>61</v>
       </c>
@@ -5701,7 +5719,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" s="18">
         <v>29</v>
       </c>
@@ -5721,7 +5739,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" s="18">
         <v>40</v>
       </c>
@@ -5741,7 +5759,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="24">
+    <row r="29" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A29" s="18">
         <v>87</v>
       </c>
@@ -5761,7 +5779,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="24">
+    <row r="30" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A30" s="7">
         <v>36</v>
       </c>
@@ -5781,7 +5799,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" s="7">
         <v>17</v>
       </c>
@@ -5801,7 +5819,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" s="18">
         <v>16</v>
       </c>
@@ -5821,7 +5839,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="24">
+    <row r="33" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A33" s="18">
         <v>28</v>
       </c>
@@ -5841,7 +5859,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="24">
+    <row r="34" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A34" s="18">
         <v>31</v>
       </c>
@@ -5861,7 +5879,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" s="18">
         <v>1</v>
       </c>
@@ -5881,7 +5899,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="24">
+    <row r="36" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A36" s="18">
         <v>54</v>
       </c>
@@ -5901,7 +5919,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" s="18">
         <v>8</v>
       </c>
@@ -5921,7 +5939,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="24">
+    <row r="38" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A38" s="7">
         <v>3</v>
       </c>
@@ -5941,7 +5959,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" s="7">
         <v>31</v>
       </c>
@@ -5961,7 +5979,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" s="7">
         <v>46</v>
       </c>
@@ -5981,7 +5999,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" s="7">
         <v>48</v>
       </c>
@@ -6001,7 +6019,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" s="18">
         <v>4</v>
       </c>
@@ -6021,7 +6039,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43" s="18">
         <v>45</v>
       </c>
@@ -6041,7 +6059,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44" s="18">
         <v>71</v>
       </c>
@@ -6061,7 +6079,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45" s="18">
         <v>79</v>
       </c>
@@ -6081,7 +6099,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46" s="18">
         <v>53</v>
       </c>
@@ -6101,7 +6119,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A47" s="18">
         <v>57</v>
       </c>
@@ -6121,7 +6139,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48" s="18">
         <v>87</v>
       </c>
@@ -6141,7 +6159,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49" s="18">
         <v>90</v>
       </c>
@@ -6161,7 +6179,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50" s="18">
         <v>66</v>
       </c>
@@ -6181,7 +6199,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="24">
+    <row r="51" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A51" s="18">
         <v>4</v>
       </c>
@@ -6201,7 +6219,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52" s="18">
         <v>14</v>
       </c>
@@ -6221,7 +6239,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A53" s="18">
         <v>19</v>
       </c>
@@ -6241,7 +6259,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A54" s="18">
         <v>23</v>
       </c>
@@ -6261,7 +6279,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="24">
+    <row r="55" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A55" s="18">
         <v>25</v>
       </c>
@@ -6281,7 +6299,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A56" s="18">
         <v>26</v>
       </c>
@@ -6301,7 +6319,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="24">
+    <row r="57" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A57" s="18">
         <v>34</v>
       </c>
@@ -6321,7 +6339,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A58" s="18">
         <v>45</v>
       </c>
@@ -6341,7 +6359,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A59" s="18">
         <v>49</v>
       </c>
@@ -6361,7 +6379,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A60" s="18">
         <v>32</v>
       </c>
@@ -6381,7 +6399,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A61" s="18">
         <v>47</v>
       </c>
@@ -6401,7 +6419,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="24">
+    <row r="62" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A62" s="18">
         <v>81</v>
       </c>
@@ -6421,7 +6439,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="24">
+    <row r="63" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A63" s="18">
         <v>83</v>
       </c>
@@ -6441,7 +6459,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="24">
+    <row r="64" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A64" s="18">
         <v>86</v>
       </c>
@@ -6461,7 +6479,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A65" s="18">
         <v>88</v>
       </c>
@@ -6481,7 +6499,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A66" s="18">
         <v>11</v>
       </c>
@@ -6501,7 +6519,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A67" s="18">
         <v>55</v>
       </c>
@@ -6521,7 +6539,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A68" s="7">
         <v>16</v>
       </c>
@@ -6541,7 +6559,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A69" s="18">
         <v>3</v>
       </c>
@@ -6561,7 +6579,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A70" s="18">
         <v>31</v>
       </c>
@@ -6581,7 +6599,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="24">
+    <row r="71" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A71" s="18">
         <v>82</v>
       </c>
@@ -6601,7 +6619,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A72" s="18">
         <v>69</v>
       </c>
@@ -6621,7 +6639,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="24">
+    <row r="73" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A73" s="7">
         <v>11</v>
       </c>
@@ -6641,7 +6659,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="24">
+    <row r="74" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A74" s="18">
         <v>38</v>
       </c>
@@ -6661,7 +6679,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A75" s="18">
         <v>97</v>
       </c>
@@ -6681,7 +6699,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A76" s="7">
         <v>4</v>
       </c>
@@ -6701,7 +6719,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="24">
+    <row r="77" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A77" s="7">
         <v>29</v>
       </c>
@@ -6721,7 +6739,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A78" s="7">
         <v>32</v>
       </c>
@@ -6741,7 +6759,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A79" s="7">
         <v>38</v>
       </c>
@@ -6761,7 +6779,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A80" s="18">
         <v>18</v>
       </c>
@@ -6781,7 +6799,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A81" s="18">
         <v>42</v>
       </c>
@@ -6801,7 +6819,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A82" s="18">
         <v>17</v>
       </c>
@@ -6821,7 +6839,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A83" s="18">
         <v>33</v>
       </c>
@@ -6841,7 +6859,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="24">
+    <row r="84" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A84" s="18">
         <v>45</v>
       </c>
@@ -6861,7 +6879,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="24">
+    <row r="85" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A85" s="18">
         <v>58</v>
       </c>
@@ -6881,7 +6899,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A86" s="18">
         <v>65</v>
       </c>
@@ -6901,7 +6919,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A87" s="18">
         <v>80</v>
       </c>
@@ -6921,7 +6939,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="24">
+    <row r="88" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A88" s="18">
         <v>83</v>
       </c>
@@ -6941,7 +6959,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="24">
+    <row r="89" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A89" s="18">
         <v>99</v>
       </c>
@@ -6961,7 +6979,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="24">
+    <row r="90" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A90" s="18">
         <v>76</v>
       </c>
@@ -6981,7 +6999,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A91" s="18">
         <v>37</v>
       </c>
@@ -7001,7 +7019,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A92" s="18">
         <v>57</v>
       </c>
@@ -7021,7 +7039,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A93" s="18">
         <v>102</v>
       </c>
@@ -7041,7 +7059,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="24">
+    <row r="94" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A94" s="18">
         <v>35</v>
       </c>
@@ -7061,7 +7079,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A95" s="18">
         <v>23</v>
       </c>
@@ -7081,7 +7099,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A96" s="18">
         <v>47</v>
       </c>
@@ -7101,7 +7119,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="24">
+    <row r="97" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A97" s="18">
         <v>16</v>
       </c>
@@ -7121,7 +7139,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A98" s="18">
         <v>3</v>
       </c>
@@ -7141,7 +7159,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="24">
+    <row r="99" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A99" s="18">
         <v>23</v>
       </c>
@@ -7161,7 +7179,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="24">
+    <row r="100" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A100" s="18">
         <v>74</v>
       </c>
@@ -7181,7 +7199,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A101" s="7">
         <v>23</v>
       </c>
@@ -7201,7 +7219,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A102" s="18">
         <v>65</v>
       </c>
@@ -7221,7 +7239,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A103" s="18">
         <v>8</v>
       </c>
@@ -7241,7 +7259,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="24">
+    <row r="104" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A104" s="18">
         <v>77</v>
       </c>
@@ -7261,7 +7279,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A105" s="18">
         <v>88</v>
       </c>
@@ -7281,7 +7299,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A106" s="18">
         <v>2</v>
       </c>
@@ -7301,7 +7319,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="24">
+    <row r="107" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A107" s="18">
         <v>34</v>
       </c>
@@ -7321,7 +7339,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A108" s="18">
         <v>78</v>
       </c>
@@ -7341,7 +7359,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="24">
+    <row r="109" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A109" s="18">
         <v>96</v>
       </c>
@@ -7361,7 +7379,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A110" s="18">
         <v>75</v>
       </c>
@@ -7381,7 +7399,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A111" s="7">
         <v>28</v>
       </c>
@@ -7401,7 +7419,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="24">
+    <row r="112" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A112" s="18">
         <v>89</v>
       </c>
@@ -7421,7 +7439,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A113" s="18">
         <v>50</v>
       </c>
@@ -7441,7 +7459,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="24">
+    <row r="114" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A114" s="7">
         <v>42</v>
       </c>
@@ -7461,7 +7479,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A115" s="18">
         <v>1</v>
       </c>
@@ -7481,7 +7499,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="24">
+    <row r="116" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A116" s="18">
         <v>100</v>
       </c>
@@ -7501,7 +7519,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="24">
+    <row r="117" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A117" s="18">
         <v>7</v>
       </c>
@@ -7521,7 +7539,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="24">
+    <row r="118" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A118" s="18">
         <v>33</v>
       </c>
@@ -7541,7 +7559,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="24">
+    <row r="119" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A119" s="18">
         <v>22</v>
       </c>
@@ -7561,7 +7579,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A120" s="18">
         <v>21</v>
       </c>
@@ -7581,7 +7599,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A121" s="18">
         <v>69</v>
       </c>
@@ -7601,7 +7619,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A122" s="18">
         <v>22</v>
       </c>
@@ -7621,7 +7639,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="24">
+    <row r="123" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A123" s="18">
         <v>39</v>
       </c>
@@ -7641,7 +7659,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A124" s="18">
         <v>91</v>
       </c>
@@ -7661,7 +7679,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A125" s="18">
         <v>49</v>
       </c>
@@ -7681,7 +7699,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A126" s="18">
         <v>67</v>
       </c>
@@ -7701,7 +7719,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A127" s="18">
         <v>59</v>
       </c>
@@ -7721,7 +7739,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A128" s="18">
         <v>70</v>
       </c>
@@ -7741,7 +7759,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A129" s="7">
         <v>21</v>
       </c>
@@ -7761,7 +7779,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A130" s="7">
         <v>41</v>
       </c>
@@ -7781,7 +7799,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A131" s="18">
         <v>59</v>
       </c>
@@ -7801,7 +7819,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="24">
+    <row r="132" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A132" s="18">
         <v>44</v>
       </c>
@@ -7821,7 +7839,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A133" s="18">
         <v>13</v>
       </c>
@@ -7841,7 +7859,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A134" s="18">
         <v>20</v>
       </c>
@@ -7861,7 +7879,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A135" s="18">
         <v>93</v>
       </c>
@@ -7881,7 +7899,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A136" s="18">
         <v>9</v>
       </c>
@@ -7901,7 +7919,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A137" s="18">
         <v>19</v>
       </c>
@@ -7921,7 +7939,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="24">
+    <row r="138" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A138" s="18">
         <v>34</v>
       </c>
@@ -7941,7 +7959,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A139" s="18">
         <v>71</v>
       </c>
@@ -7961,7 +7979,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A140" s="18">
         <v>36</v>
       </c>
@@ -7981,7 +7999,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="141" spans="1:6" ht="24">
+    <row r="141" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A141" s="18">
         <v>16</v>
       </c>
@@ -8001,7 +8019,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A142" s="18">
         <v>24</v>
       </c>
@@ -8021,7 +8039,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A143" s="7">
         <v>5</v>
       </c>
@@ -8041,7 +8059,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="144" spans="1:6">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A144" s="18">
         <v>81</v>
       </c>
@@ -8061,7 +8079,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="145" spans="1:6" ht="24">
+    <row r="145" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A145" s="18">
         <v>21</v>
       </c>
@@ -8081,7 +8099,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="146" spans="1:6" ht="24">
+    <row r="146" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A146" s="18">
         <v>56</v>
       </c>
@@ -8101,7 +8119,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="147" spans="1:6">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A147" s="18">
         <v>46</v>
       </c>
@@ -8121,7 +8139,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="148" spans="1:6">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A148" s="18">
         <v>51</v>
       </c>
@@ -8141,7 +8159,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="149" spans="1:6" ht="24">
+    <row r="149" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A149" s="18">
         <v>52</v>
       </c>
@@ -8161,7 +8179,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="150" spans="1:6" ht="24">
+    <row r="150" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A150" s="18">
         <v>20</v>
       </c>
@@ -8181,7 +8199,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="151" spans="1:6">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A151" s="7">
         <v>6</v>
       </c>
@@ -8201,7 +8219,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="152" spans="1:6" ht="24">
+    <row r="152" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A152" s="7">
         <v>7</v>
       </c>
@@ -8221,7 +8239,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="153" spans="1:6" ht="24">
+    <row r="153" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A153" s="7">
         <v>19</v>
       </c>
@@ -8241,7 +8259,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="154" spans="1:6" ht="24">
+    <row r="154" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A154" s="7">
         <v>43</v>
       </c>
@@ -8261,7 +8279,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="155" spans="1:6">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A155" s="18">
         <v>6</v>
       </c>
@@ -8281,7 +8299,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="156" spans="1:6">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A156" s="18">
         <v>15</v>
       </c>
@@ -8301,7 +8319,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="157" spans="1:6" ht="24">
+    <row r="157" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A157" s="18">
         <v>46</v>
       </c>
@@ -8321,7 +8339,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="158" spans="1:6">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A158" s="18">
         <v>37</v>
       </c>
@@ -8341,7 +8359,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="159" spans="1:6" ht="24">
+    <row r="159" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A159" s="18">
         <v>17</v>
       </c>
@@ -8361,7 +8379,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="160" spans="1:6">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A160" s="18">
         <v>12</v>
       </c>
@@ -8381,7 +8399,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="161" spans="1:6">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A161" s="18">
         <v>19</v>
       </c>
@@ -8401,7 +8419,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="162" spans="1:6">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A162" s="18">
         <v>41</v>
       </c>
@@ -8421,7 +8439,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="163" spans="1:6" ht="24">
+    <row r="163" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A163" s="18">
         <v>30</v>
       </c>
@@ -8441,7 +8459,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="164" spans="1:6" ht="24">
+    <row r="164" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A164" s="7">
         <v>39</v>
       </c>
@@ -8461,7 +8479,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="165" spans="1:6" ht="24">
+    <row r="165" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A165" s="18">
         <v>101</v>
       </c>
@@ -8481,7 +8499,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="166" spans="1:6">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A166" s="18">
         <v>37</v>
       </c>
@@ -8501,7 +8519,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="167" spans="1:6">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A167" s="7">
         <v>1</v>
       </c>
@@ -8521,7 +8539,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="168" spans="1:6" ht="24">
+    <row r="168" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A168" s="18">
         <v>47</v>
       </c>
@@ -8541,7 +8559,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="169" spans="1:6">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A169" s="18">
         <v>62</v>
       </c>
@@ -8561,7 +8579,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="170" spans="1:6">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A170" s="18">
         <v>72</v>
       </c>
@@ -8581,7 +8599,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="171" spans="1:6" ht="24">
+    <row r="171" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A171" s="18">
         <v>85</v>
       </c>
@@ -8601,7 +8619,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="172" spans="1:6" ht="24">
+    <row r="172" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A172" s="7">
         <v>37</v>
       </c>
@@ -8621,7 +8639,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="173" spans="1:6">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A173" s="18">
         <v>33</v>
       </c>
@@ -8641,7 +8659,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="174" spans="1:6" ht="24">
+    <row r="174" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A174" s="18">
         <v>4</v>
       </c>
@@ -8661,7 +8679,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="175" spans="1:6">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A175" s="18">
         <v>11</v>
       </c>
@@ -8681,7 +8699,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="176" spans="1:6">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A176" s="18">
         <v>12</v>
       </c>
@@ -8701,7 +8719,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="177" spans="1:6" ht="24">
+    <row r="177" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A177" s="18">
         <v>18</v>
       </c>
@@ -8721,7 +8739,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="178" spans="1:6">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A178" s="18">
         <v>36</v>
       </c>
@@ -8741,7 +8759,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="179" spans="1:6">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A179" s="18">
         <v>42</v>
       </c>
@@ -8761,7 +8779,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="180" spans="1:6">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A180" s="18">
         <v>50</v>
       </c>
@@ -8781,7 +8799,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="181" spans="1:6">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A181" s="18">
         <v>84</v>
       </c>
@@ -8801,7 +8819,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="182" spans="1:6">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A182" s="18">
         <v>95</v>
       </c>
@@ -8821,7 +8839,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="183" spans="1:6">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A183" s="18">
         <v>98</v>
       </c>
@@ -8841,7 +8859,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="184" spans="1:6" ht="24">
+    <row r="184" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A184" s="18">
         <v>63</v>
       </c>
@@ -8861,7 +8879,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="185" spans="1:6">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A185" s="7">
         <v>22</v>
       </c>
@@ -8881,7 +8899,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="186" spans="1:6">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A186" s="18">
         <v>5</v>
       </c>
@@ -8901,7 +8919,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="187" spans="1:6" ht="24">
+    <row r="187" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A187" s="18">
         <v>6</v>
       </c>
@@ -8921,7 +8939,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="188" spans="1:6">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A188" s="18">
         <v>13</v>
       </c>
@@ -8941,7 +8959,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="189" spans="1:6">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A189" s="18">
         <v>20</v>
       </c>
@@ -8961,7 +8979,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="190" spans="1:6" ht="24">
+    <row r="190" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A190" s="18">
         <v>21</v>
       </c>
@@ -8981,7 +8999,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="191" spans="1:6">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A191" s="18">
         <v>28</v>
       </c>
@@ -9001,7 +9019,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="192" spans="1:6">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A192" s="18">
         <v>40</v>
       </c>
@@ -9021,7 +9039,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="193" spans="1:6">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A193" s="18">
         <v>44</v>
       </c>
@@ -9041,7 +9059,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="194" spans="1:6">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A194" s="18">
         <v>92</v>
       </c>
@@ -9061,7 +9079,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="195" spans="1:6" ht="24">
+    <row r="195" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A195" s="18">
         <v>10</v>
       </c>
@@ -9081,7 +9099,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="196" spans="1:6">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A196" s="18">
         <v>75</v>
       </c>
@@ -9101,7 +9119,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="197" spans="1:6">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A197" s="7">
         <v>15</v>
       </c>
@@ -9121,7 +9139,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="198" spans="1:6">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A198" s="18">
         <v>32</v>
       </c>
@@ -9141,7 +9159,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="199" spans="1:6">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A199" s="7">
         <v>10</v>
       </c>
@@ -9161,7 +9179,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="200" spans="1:6">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A200" s="18">
         <v>62</v>
       </c>
@@ -9181,7 +9199,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="201" spans="1:6" ht="24">
+    <row r="201" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A201" s="18">
         <v>24</v>
       </c>
@@ -9201,7 +9219,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="202" spans="1:6">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A202" s="18">
         <v>46</v>
       </c>
@@ -9221,7 +9239,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="203" spans="1:6" ht="24">
+    <row r="203" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A203" s="7">
         <v>20</v>
       </c>
@@ -9241,7 +9259,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="204" spans="1:6">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A204" s="18">
         <v>2</v>
       </c>
@@ -9261,7 +9279,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="205" spans="1:6">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A205" s="18">
         <v>35</v>
       </c>
@@ -9281,7 +9299,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="206" spans="1:6" ht="24">
+    <row r="206" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A206" s="18">
         <v>89</v>
       </c>
@@ -9301,7 +9319,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="207" spans="1:6">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A207" s="18">
         <v>17</v>
       </c>
@@ -9321,7 +9339,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="208" spans="1:6">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A208" s="18">
         <v>80</v>
       </c>
@@ -9341,7 +9359,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="209" spans="1:6">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A209" s="18">
         <v>5</v>
       </c>
@@ -9361,7 +9379,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="210" spans="1:6">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A210" s="18">
         <v>78</v>
       </c>
@@ -9381,7 +9399,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="211" spans="1:6" ht="24">
+    <row r="211" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A211" s="18">
         <v>2</v>
       </c>
@@ -9401,7 +9419,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="212" spans="1:6" ht="24">
+    <row r="212" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A212" s="18">
         <v>1</v>
       </c>
@@ -9421,7 +9439,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="213" spans="1:6" ht="24">
+    <row r="213" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A213" s="18">
         <v>64</v>
       </c>
@@ -9441,7 +9459,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="214" spans="1:6">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A214" s="7">
         <v>9</v>
       </c>
@@ -9461,7 +9479,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="215" spans="1:6">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A215" s="18">
         <v>54</v>
       </c>
@@ -9481,7 +9499,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="216" spans="1:6">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A216" s="18">
         <v>67</v>
       </c>
@@ -9501,7 +9519,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="217" spans="1:6">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A217" s="18">
         <v>30</v>
       </c>
@@ -9521,7 +9539,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="218" spans="1:6">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A218" s="7">
         <v>12</v>
       </c>
@@ -9541,7 +9559,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="219" spans="1:6">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A219" s="7">
         <v>47</v>
       </c>
@@ -9561,7 +9579,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="220" spans="1:6" ht="24">
+    <row r="220" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A220" s="18">
         <v>38</v>
       </c>
@@ -9581,7 +9599,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="221" spans="1:6" ht="24">
+    <row r="221" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A221" s="18">
         <v>13</v>
       </c>
@@ -9601,7 +9619,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="222" spans="1:6">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A222" s="18">
         <v>60</v>
       </c>
@@ -9621,7 +9639,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="223" spans="1:6" ht="24">
+    <row r="223" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A223" s="18">
         <v>92</v>
       </c>
@@ -9641,7 +9659,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="224" spans="1:6">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A224" s="18">
         <v>15</v>
       </c>
@@ -9661,7 +9679,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="225" spans="1:6">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A225" s="18">
         <v>8</v>
       </c>
@@ -9681,7 +9699,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="226" spans="1:6" ht="24">
+    <row r="226" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A226" s="7">
         <v>40</v>
       </c>
@@ -9701,7 +9719,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="227" spans="1:6">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A227" s="18">
         <v>26</v>
       </c>
@@ -9721,7 +9739,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="228" spans="1:6">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A228" s="18">
         <v>50</v>
       </c>
@@ -9741,7 +9759,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="229" spans="1:6">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A229" s="7">
         <v>33</v>
       </c>
@@ -9761,7 +9779,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="230" spans="1:6">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A230" s="18">
         <v>10</v>
       </c>
@@ -9781,7 +9799,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="231" spans="1:6">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A231" s="18">
         <v>18</v>
       </c>
@@ -9801,7 +9819,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="232" spans="1:6">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A232" s="18">
         <v>39</v>
       </c>
@@ -9821,7 +9839,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="233" spans="1:6" ht="24">
+    <row r="233" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A233" s="18">
         <v>14</v>
       </c>
@@ -9841,7 +9859,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="234" spans="1:6">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A234" s="18">
         <v>39</v>
       </c>
@@ -9861,7 +9879,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="235" spans="1:6" ht="24">
+    <row r="235" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A235" s="18">
         <v>77</v>
       </c>
@@ -9881,7 +9899,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="236" spans="1:6">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A236" s="18">
         <v>25</v>
       </c>
@@ -9901,7 +9919,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="237" spans="1:6">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A237" s="18">
         <v>52</v>
       </c>
@@ -9921,7 +9939,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="238" spans="1:6" ht="24">
+    <row r="238" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A238" s="7">
         <v>30</v>
       </c>
@@ -9941,7 +9959,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="239" spans="1:6" ht="24">
+    <row r="239" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A239" s="18">
         <v>48</v>
       </c>
@@ -9961,7 +9979,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="240" spans="1:6">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A240" s="18">
         <v>14</v>
       </c>
@@ -9981,7 +9999,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="241" spans="1:6">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A241" s="18">
         <v>26</v>
       </c>
@@ -10001,7 +10019,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="242" spans="1:6">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A242" s="18">
         <v>32</v>
       </c>
@@ -10021,7 +10039,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="243" spans="1:6" ht="24">
+    <row r="243" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A243" s="18">
         <v>86</v>
       </c>
@@ -10041,7 +10059,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="244" spans="1:6">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A244" s="18">
         <v>94</v>
       </c>
@@ -10061,7 +10079,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="245" spans="1:6">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A245" s="18">
         <v>22</v>
       </c>
@@ -10081,7 +10099,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="246" spans="1:6">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A246" s="18">
         <v>53</v>
       </c>
@@ -10101,7 +10119,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="247" spans="1:6">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A247" s="18">
         <v>90</v>
       </c>
@@ -10121,7 +10139,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="248" spans="1:6">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A248" s="18">
         <v>3</v>
       </c>
@@ -10141,7 +10159,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="249" spans="1:6">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A249" s="18">
         <v>76</v>
       </c>
@@ -10161,7 +10179,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="250" spans="1:6" ht="24">
+    <row r="250" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A250" s="18">
         <v>35</v>
       </c>
@@ -10181,7 +10199,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="251" spans="1:6">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A251" s="18">
         <v>64</v>
       </c>
@@ -10201,7 +10219,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="252" spans="1:6">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A252" s="7">
         <v>13</v>
       </c>
@@ -10221,7 +10239,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="253" spans="1:6">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A253" s="7">
         <v>18</v>
       </c>
@@ -10241,7 +10259,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="254" spans="1:6" ht="24">
+    <row r="254" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A254" s="7">
         <v>45</v>
       </c>
@@ -10261,7 +10279,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="255" spans="1:6">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A255" s="18">
         <v>42</v>
       </c>
@@ -10281,7 +10299,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="256" spans="1:6">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A256" s="18">
         <v>73</v>
       </c>
@@ -10301,7 +10319,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="257" spans="1:6">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A257" s="18">
         <v>15</v>
       </c>
@@ -10321,7 +10339,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="258" spans="1:6">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A258" s="18">
         <v>66</v>
       </c>
@@ -10341,7 +10359,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="259" spans="1:6">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A259" s="18">
         <v>11</v>
       </c>
@@ -10361,7 +10379,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="260" spans="1:6">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A260" s="18">
         <v>27</v>
       </c>
@@ -10381,7 +10399,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="261" spans="1:6">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A261" s="18">
         <v>6</v>
       </c>
@@ -10401,7 +10419,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="262" spans="1:6" ht="24">
+    <row r="262" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A262" s="18">
         <v>58</v>
       </c>
@@ -10421,7 +10439,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="263" spans="1:6">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A263" s="18">
         <v>61</v>
       </c>
@@ -10441,7 +10459,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="264" spans="1:6">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A264" s="18">
         <v>10</v>
       </c>
@@ -10461,7 +10479,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="265" spans="1:6" ht="24">
+    <row r="265" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A265" s="7">
         <v>14</v>
       </c>
@@ -10481,7 +10499,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="266" spans="1:6" ht="24">
+    <row r="266" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A266" s="18">
         <v>31</v>
       </c>
@@ -10501,7 +10519,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="267" spans="1:6">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A267" s="18">
         <v>68</v>
       </c>
@@ -10521,7 +10539,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="268" spans="1:6" ht="24">
+    <row r="268" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A268" s="18">
         <v>9</v>
       </c>
@@ -10541,7 +10559,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="269" spans="1:6">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A269" s="18">
         <v>43</v>
       </c>
@@ -10561,7 +10579,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="270" spans="1:6">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A270" s="18">
         <v>79</v>
       </c>
@@ -10581,7 +10599,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="271" spans="1:6">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A271" s="18">
         <v>93</v>
       </c>
@@ -10601,7 +10619,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="272" spans="1:6">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A272" s="18">
         <v>41</v>
       </c>
@@ -10621,7 +10639,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="273" spans="1:6">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A273" s="18">
         <v>7</v>
       </c>
@@ -10641,7 +10659,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="274" spans="1:6">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A274" s="18">
         <v>12</v>
       </c>
@@ -10661,7 +10679,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="275" spans="1:6">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A275" s="18">
         <v>38</v>
       </c>
@@ -10681,7 +10699,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="276" spans="1:6" ht="24">
+    <row r="276" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A276" s="7">
         <v>27</v>
       </c>
@@ -10701,7 +10719,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="277" spans="1:6">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A277" s="18">
         <v>40</v>
       </c>
@@ -10721,7 +10739,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="278" spans="1:6">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A278" s="18">
         <v>51</v>
       </c>
@@ -10741,7 +10759,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="279" spans="1:6">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A279" s="18">
         <v>5</v>
       </c>
@@ -10761,7 +10779,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="280" spans="1:6">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A280" s="18">
         <v>29</v>
       </c>
@@ -10781,7 +10799,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="281" spans="1:6">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A281" s="18">
         <v>36</v>
       </c>
@@ -10801,7 +10819,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="282" spans="1:6">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A282" s="18">
         <v>44</v>
       </c>
@@ -10821,7 +10839,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="283" spans="1:6">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A283" s="18">
         <v>74</v>
       </c>
@@ -10841,7 +10859,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="284" spans="1:6" ht="24">
+    <row r="284" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A284" s="18">
         <v>82</v>
       </c>
@@ -10861,7 +10879,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="285" spans="1:6" ht="24">
+    <row r="285" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A285" s="18">
         <v>91</v>
       </c>
@@ -10881,7 +10899,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="286" spans="1:6">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A286" s="18">
         <v>25</v>
       </c>
@@ -10901,7 +10919,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="287" spans="1:6">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A287" s="18">
         <v>27</v>
       </c>
@@ -10921,7 +10939,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="288" spans="1:6">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A288" s="18">
         <v>43</v>
       </c>
@@ -10941,7 +10959,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="289" spans="1:6" ht="24">
+    <row r="289" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A289" s="18">
         <v>48</v>
       </c>
@@ -10961,7 +10979,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="290" spans="1:6">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A290" s="18">
         <v>56</v>
       </c>
@@ -10981,7 +10999,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="291" spans="1:6">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A291" s="18">
         <v>60</v>
       </c>
@@ -11001,7 +11019,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="292" spans="1:6">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A292" s="18">
         <v>63</v>
       </c>
@@ -11021,7 +11039,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="293" spans="1:6">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A293" s="18">
         <v>73</v>
       </c>
@@ -11041,7 +11059,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="294" spans="1:6" ht="24.75" thickBot="1">
+    <row r="294" spans="1:6" ht="24.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A294" s="37">
         <v>84</v>
       </c>
@@ -11070,7 +11088,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11080,7 +11098,7 @@
       <selection pane="bottomRight" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.5" style="11" customWidth="1"/>
     <col min="2" max="2" width="6.375" style="35" customWidth="1"/>
@@ -11090,7 +11108,7 @@
     <col min="6" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="27" customHeight="1">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="69" t="s">
         <v>357</v>
       </c>
@@ -11099,7 +11117,7 @@
       <c r="D1" s="69"/>
       <c r="E1" s="69"/>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1">
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="70" t="s">
         <v>40</v>
       </c>
@@ -11108,7 +11126,7 @@
       <c r="D2" s="70"/>
       <c r="E2" s="70"/>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" ht="21.95" customHeight="1">
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="50" t="s">
         <v>41</v>
       </c>
@@ -11125,7 +11143,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" ht="21.95" customHeight="1">
+    <row r="4" spans="1:5" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7">
         <v>1</v>
       </c>
@@ -11142,7 +11160,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="1" customFormat="1" ht="21.95" customHeight="1">
+    <row r="5" spans="1:5" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7">
         <v>2</v>
       </c>
@@ -11159,7 +11177,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="1" customFormat="1" ht="21.95" customHeight="1">
+    <row r="6" spans="1:5" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="7">
         <v>3</v>
       </c>
@@ -11176,7 +11194,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="1" customFormat="1" ht="21.95" customHeight="1">
+    <row r="7" spans="1:5" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="7">
         <v>4</v>
       </c>
@@ -11193,7 +11211,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="1" customFormat="1" ht="21.95" customHeight="1">
+    <row r="8" spans="1:5" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="7">
         <v>5</v>
       </c>
@@ -11210,7 +11228,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="1" customFormat="1" ht="21.95" customHeight="1">
+    <row r="9" spans="1:5" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="7">
         <v>6</v>
       </c>
@@ -11227,7 +11245,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="1" customFormat="1" ht="21.95" customHeight="1">
+    <row r="10" spans="1:5" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="7">
         <v>7</v>
       </c>
@@ -11244,7 +11262,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="1" customFormat="1" ht="21.95" customHeight="1">
+    <row r="11" spans="1:5" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="7">
         <v>8</v>
       </c>
@@ -11261,7 +11279,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="1" customFormat="1" ht="21.95" customHeight="1">
+    <row r="12" spans="1:5" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="7">
         <v>9</v>
       </c>
@@ -11278,7 +11296,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="1" customFormat="1" ht="21.95" customHeight="1">
+    <row r="13" spans="1:5" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="7">
         <v>10</v>
       </c>
@@ -11295,7 +11313,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="1" customFormat="1" ht="21.95" customHeight="1">
+    <row r="14" spans="1:5" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="7">
         <v>11</v>
       </c>
@@ -11312,7 +11330,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="1" customFormat="1" ht="21.95" customHeight="1">
+    <row r="15" spans="1:5" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="7">
         <v>12</v>
       </c>
@@ -11329,7 +11347,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="1" customFormat="1" ht="21.95" customHeight="1">
+    <row r="16" spans="1:5" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="7">
         <v>13</v>
       </c>
@@ -11346,7 +11364,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="1" customFormat="1" ht="21.95" customHeight="1">
+    <row r="17" spans="1:5" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="7">
         <v>14</v>
       </c>
@@ -11363,7 +11381,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="1" customFormat="1" ht="21.95" customHeight="1">
+    <row r="18" spans="1:5" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="7">
         <v>15</v>
       </c>
@@ -11380,7 +11398,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="1" customFormat="1" ht="21.95" customHeight="1">
+    <row r="19" spans="1:5" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="7">
         <v>16</v>
       </c>
@@ -11397,7 +11415,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="1" customFormat="1" ht="21.95" customHeight="1">
+    <row r="20" spans="1:5" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="7">
         <v>17</v>
       </c>
@@ -11414,7 +11432,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="1" customFormat="1" ht="21.95" customHeight="1">
+    <row r="21" spans="1:5" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="7">
         <v>18</v>
       </c>
@@ -11431,7 +11449,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="1" customFormat="1" ht="21.95" customHeight="1">
+    <row r="22" spans="1:5" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="7">
         <v>19</v>
       </c>
@@ -11448,7 +11466,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="1" customFormat="1" ht="21.95" customHeight="1">
+    <row r="23" spans="1:5" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="7">
         <v>20</v>
       </c>
@@ -11465,7 +11483,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="8" customFormat="1" ht="21.95" customHeight="1">
+    <row r="24" spans="1:5" s="8" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="7">
         <v>21</v>
       </c>
@@ -11482,7 +11500,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="1" customFormat="1" ht="21.95" customHeight="1">
+    <row r="25" spans="1:5" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="7">
         <v>22</v>
       </c>
@@ -11499,7 +11517,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="1" customFormat="1" ht="21.95" customHeight="1">
+    <row r="26" spans="1:5" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="7">
         <v>23</v>
       </c>
@@ -11516,7 +11534,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="1" customFormat="1" ht="21.95" customHeight="1">
+    <row r="27" spans="1:5" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="7">
         <v>24</v>
       </c>
@@ -11533,7 +11551,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="1" customFormat="1" ht="21.95" customHeight="1">
+    <row r="28" spans="1:5" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="7">
         <v>25</v>
       </c>
@@ -11550,7 +11568,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="1" customFormat="1" ht="21.95" customHeight="1">
+    <row r="29" spans="1:5" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="7">
         <v>26</v>
       </c>
@@ -11567,7 +11585,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="1" customFormat="1" ht="21.95" customHeight="1">
+    <row r="30" spans="1:5" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="7">
         <v>27</v>
       </c>
@@ -11584,7 +11602,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="1" customFormat="1" ht="21.95" customHeight="1">
+    <row r="31" spans="1:5" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="7">
         <v>28</v>
       </c>
@@ -11601,7 +11619,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="32" spans="1:5" s="1" customFormat="1" ht="21.95" customHeight="1">
+    <row r="32" spans="1:5" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="7">
         <v>29</v>
       </c>
@@ -11618,7 +11636,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="1" customFormat="1" ht="21.95" customHeight="1">
+    <row r="33" spans="1:5" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="7">
         <v>30</v>
       </c>
@@ -11635,7 +11653,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="1" customFormat="1" ht="21.95" customHeight="1">
+    <row r="34" spans="1:5" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="7">
         <v>31</v>
       </c>
@@ -11652,7 +11670,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="35" spans="1:5" s="1" customFormat="1" ht="21.95" customHeight="1">
+    <row r="35" spans="1:5" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="7">
         <v>32</v>
       </c>
@@ -11669,7 +11687,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="36" spans="1:5" s="1" customFormat="1" ht="21.95" customHeight="1">
+    <row r="36" spans="1:5" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="7">
         <v>33</v>
       </c>
@@ -11686,7 +11704,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="37" spans="1:5" s="1" customFormat="1" ht="21.95" customHeight="1">
+    <row r="37" spans="1:5" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="7">
         <v>34</v>
       </c>
@@ -11703,7 +11721,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="38" spans="1:5" s="1" customFormat="1" ht="21.95" customHeight="1">
+    <row r="38" spans="1:5" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="7">
         <v>35</v>
       </c>
@@ -11720,7 +11738,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="1" customFormat="1" ht="21.95" customHeight="1">
+    <row r="39" spans="1:5" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="7">
         <v>36</v>
       </c>
@@ -11737,7 +11755,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="40" spans="1:5" s="1" customFormat="1" ht="21.95" customHeight="1">
+    <row r="40" spans="1:5" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="7">
         <v>37</v>
       </c>
@@ -11754,7 +11772,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="41" spans="1:5" s="1" customFormat="1" ht="21.95" customHeight="1">
+    <row r="41" spans="1:5" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="7">
         <v>38</v>
       </c>
@@ -11771,7 +11789,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="42" spans="1:5" s="1" customFormat="1" ht="21.95" customHeight="1">
+    <row r="42" spans="1:5" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="7">
         <v>39</v>
       </c>
@@ -11788,7 +11806,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="43" spans="1:5" s="1" customFormat="1" ht="21.95" customHeight="1">
+    <row r="43" spans="1:5" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="7">
         <v>40</v>
       </c>
@@ -11805,7 +11823,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="44" spans="1:5" s="1" customFormat="1" ht="21.95" customHeight="1">
+    <row r="44" spans="1:5" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="7">
         <v>41</v>
       </c>
@@ -11822,7 +11840,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="45" spans="1:5" s="1" customFormat="1" ht="21.95" customHeight="1">
+    <row r="45" spans="1:5" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="7">
         <v>42</v>
       </c>
@@ -11839,7 +11857,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="21.95" customHeight="1">
+    <row r="46" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="7">
         <v>43</v>
       </c>
@@ -11856,7 +11874,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="21.95" customHeight="1">
+    <row r="47" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="7">
         <v>44</v>
       </c>
@@ -11873,7 +11891,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="21.95" customHeight="1">
+    <row r="48" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="7">
         <v>45</v>
       </c>
@@ -11890,7 +11908,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="21.95" customHeight="1">
+    <row r="49" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="7">
         <v>46</v>
       </c>
@@ -11907,7 +11925,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="21.95" customHeight="1">
+    <row r="50" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="7">
         <v>47</v>
       </c>
@@ -11924,7 +11942,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="21.95" customHeight="1" thickBot="1">
+    <row r="51" spans="1:5" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A51" s="34">
         <v>48</v>
       </c>
@@ -11956,7 +11974,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IP53"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -11966,7 +11984,7 @@
       <selection pane="bottomRight" activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.5" style="11" customWidth="1"/>
     <col min="2" max="2" width="6.375" style="35" bestFit="1" customWidth="1"/>
@@ -11976,7 +11994,7 @@
     <col min="6" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:250" ht="24" customHeight="1">
+    <row r="1" spans="1:250" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="69" t="s">
         <v>357</v>
       </c>
@@ -11985,7 +12003,7 @@
       <c r="D1" s="69"/>
       <c r="E1" s="69"/>
     </row>
-    <row r="2" spans="1:250" ht="24.75" customHeight="1" thickBot="1">
+    <row r="2" spans="1:250" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="71" t="s">
         <v>39</v>
       </c>
@@ -11994,7 +12012,7 @@
       <c r="D2" s="71"/>
       <c r="E2" s="71"/>
     </row>
-    <row r="3" spans="1:250" s="13" customFormat="1" ht="21.95" customHeight="1">
+    <row r="3" spans="1:250" s="13" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="53" t="s">
         <v>266</v>
       </c>
@@ -12011,7 +12029,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="4" spans="1:250" ht="21.95" customHeight="1">
+    <row r="4" spans="1:250" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="18">
         <v>1</v>
       </c>
@@ -12028,7 +12046,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="5" spans="1:250" ht="21.95" customHeight="1">
+    <row r="5" spans="1:250" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="18">
         <v>2</v>
       </c>
@@ -12045,7 +12063,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="6" spans="1:250" ht="21.95" customHeight="1">
+    <row r="6" spans="1:250" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="18">
         <v>3</v>
       </c>
@@ -12062,7 +12080,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="7" spans="1:250" ht="21.95" customHeight="1">
+    <row r="7" spans="1:250" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="18">
         <v>4</v>
       </c>
@@ -12079,7 +12097,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="8" spans="1:250" ht="21.95" customHeight="1">
+    <row r="8" spans="1:250" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="18">
         <v>5</v>
       </c>
@@ -12096,7 +12114,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="9" spans="1:250" ht="21.95" customHeight="1">
+    <row r="9" spans="1:250" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="18">
         <v>6</v>
       </c>
@@ -12113,7 +12131,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="10" spans="1:250" ht="21.95" customHeight="1">
+    <row r="10" spans="1:250" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="18">
         <v>7</v>
       </c>
@@ -12130,7 +12148,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="11" spans="1:250" ht="21.95" customHeight="1">
+    <row r="11" spans="1:250" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="18">
         <v>8</v>
       </c>
@@ -12147,7 +12165,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="12" spans="1:250" ht="21.95" customHeight="1">
+    <row r="12" spans="1:250" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="18">
         <v>9</v>
       </c>
@@ -12164,7 +12182,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="13" spans="1:250" ht="21.95" customHeight="1">
+    <row r="13" spans="1:250" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="18">
         <v>10</v>
       </c>
@@ -12426,7 +12444,7 @@
       <c r="IO13" s="13"/>
       <c r="IP13" s="13"/>
     </row>
-    <row r="14" spans="1:250" ht="21.95" customHeight="1">
+    <row r="14" spans="1:250" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="18">
         <v>11</v>
       </c>
@@ -12688,7 +12706,7 @@
       <c r="IO14" s="13"/>
       <c r="IP14" s="13"/>
     </row>
-    <row r="15" spans="1:250" ht="21.95" customHeight="1">
+    <row r="15" spans="1:250" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="18">
         <v>12</v>
       </c>
@@ -12950,7 +12968,7 @@
       <c r="IO15" s="13"/>
       <c r="IP15" s="13"/>
     </row>
-    <row r="16" spans="1:250" ht="21.95" customHeight="1">
+    <row r="16" spans="1:250" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="18">
         <v>13</v>
       </c>
@@ -13212,7 +13230,7 @@
       <c r="IO16" s="13"/>
       <c r="IP16" s="13"/>
     </row>
-    <row r="17" spans="1:250" ht="21.95" customHeight="1">
+    <row r="17" spans="1:250" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="18">
         <v>14</v>
       </c>
@@ -13474,7 +13492,7 @@
       <c r="IO17" s="13"/>
       <c r="IP17" s="13"/>
     </row>
-    <row r="18" spans="1:250" ht="21.95" customHeight="1">
+    <row r="18" spans="1:250" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="18">
         <v>15</v>
       </c>
@@ -13491,7 +13509,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="19" spans="1:250" ht="21.95" customHeight="1">
+    <row r="19" spans="1:250" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="18">
         <v>16</v>
       </c>
@@ -13508,7 +13526,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="20" spans="1:250" ht="21.95" customHeight="1">
+    <row r="20" spans="1:250" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="18">
         <v>17</v>
       </c>
@@ -13525,7 +13543,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="21" spans="1:250" ht="21.95" customHeight="1">
+    <row r="21" spans="1:250" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="18">
         <v>18</v>
       </c>
@@ -13542,7 +13560,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="22" spans="1:250" ht="21.95" customHeight="1">
+    <row r="22" spans="1:250" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="18">
         <v>19</v>
       </c>
@@ -13559,7 +13577,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="23" spans="1:250" ht="21.95" customHeight="1">
+    <row r="23" spans="1:250" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="18">
         <v>20</v>
       </c>
@@ -13576,7 +13594,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="24" spans="1:250" ht="21.95" customHeight="1">
+    <row r="24" spans="1:250" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="18">
         <v>21</v>
       </c>
@@ -13593,7 +13611,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="25" spans="1:250" ht="21.95" customHeight="1">
+    <row r="25" spans="1:250" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="18">
         <v>22</v>
       </c>
@@ -13610,7 +13628,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="26" spans="1:250" ht="21.95" customHeight="1">
+    <row r="26" spans="1:250" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="18">
         <v>23</v>
       </c>
@@ -13627,7 +13645,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="27" spans="1:250" ht="21.95" customHeight="1">
+    <row r="27" spans="1:250" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="18">
         <v>24</v>
       </c>
@@ -13644,7 +13662,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="28" spans="1:250" ht="21.95" customHeight="1">
+    <row r="28" spans="1:250" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="18">
         <v>25</v>
       </c>
@@ -13661,7 +13679,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="29" spans="1:250" ht="21.95" customHeight="1">
+    <row r="29" spans="1:250" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="18">
         <v>26</v>
       </c>
@@ -13678,7 +13696,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="30" spans="1:250" ht="21.95" customHeight="1">
+    <row r="30" spans="1:250" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="18">
         <v>27</v>
       </c>
@@ -13695,7 +13713,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="31" spans="1:250" ht="21.95" customHeight="1">
+    <row r="31" spans="1:250" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="18">
         <v>28</v>
       </c>
@@ -13712,7 +13730,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="32" spans="1:250" ht="21.95" customHeight="1">
+    <row r="32" spans="1:250" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="18">
         <v>29</v>
       </c>
@@ -13729,7 +13747,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="21.95" customHeight="1">
+    <row r="33" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="18">
         <v>30</v>
       </c>
@@ -13746,7 +13764,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="21.95" customHeight="1">
+    <row r="34" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="18">
         <v>31</v>
       </c>
@@ -13763,7 +13781,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="21.95" customHeight="1">
+    <row r="35" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="18">
         <v>32</v>
       </c>
@@ -13780,7 +13798,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="21.95" customHeight="1">
+    <row r="36" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="18">
         <v>33</v>
       </c>
@@ -13797,7 +13815,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="21.95" customHeight="1">
+    <row r="37" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="18">
         <v>34</v>
       </c>
@@ -13814,7 +13832,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="21.95" customHeight="1">
+    <row r="38" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="18">
         <v>35</v>
       </c>
@@ -13831,7 +13849,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="21.95" customHeight="1">
+    <row r="39" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="18">
         <v>36</v>
       </c>
@@ -13848,7 +13866,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="21.95" customHeight="1">
+    <row r="40" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="18">
         <v>37</v>
       </c>
@@ -13865,7 +13883,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="21.95" customHeight="1">
+    <row r="41" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="18">
         <v>38</v>
       </c>
@@ -13882,7 +13900,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="21.95" customHeight="1">
+    <row r="42" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="18">
         <v>39</v>
       </c>
@@ -13899,7 +13917,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="21.95" customHeight="1">
+    <row r="43" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="18">
         <v>40</v>
       </c>
@@ -13916,7 +13934,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="21.95" customHeight="1">
+    <row r="44" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="18">
         <v>41</v>
       </c>
@@ -13933,7 +13951,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="21.95" customHeight="1">
+    <row r="45" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="18">
         <v>42</v>
       </c>
@@ -13950,7 +13968,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="21.95" customHeight="1">
+    <row r="46" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="18">
         <v>43</v>
       </c>
@@ -13967,7 +13985,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="21.95" customHeight="1">
+    <row r="47" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="18">
         <v>44</v>
       </c>
@@ -13984,7 +14002,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="21.95" customHeight="1">
+    <row r="48" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="18">
         <v>45</v>
       </c>
@@ -14001,7 +14019,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="21.95" customHeight="1">
+    <row r="49" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="18">
         <v>46</v>
       </c>
@@ -14018,7 +14036,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="21.95" customHeight="1">
+    <row r="50" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="18">
         <v>47</v>
       </c>
@@ -14035,7 +14053,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="21.95" customHeight="1">
+    <row r="51" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="18">
         <v>48</v>
       </c>
@@ -14052,7 +14070,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="21.95" customHeight="1">
+    <row r="52" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="18">
         <v>49</v>
       </c>
@@ -14069,7 +14087,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="21.95" customHeight="1" thickBot="1">
+    <row r="53" spans="1:5" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A53" s="37">
         <v>50</v>
       </c>
@@ -14101,7 +14119,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14111,7 +14129,7 @@
       <selection pane="bottomRight" activeCell="J99" sqref="J99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.75" style="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.375" style="35" bestFit="1" customWidth="1"/>
@@ -14122,7 +14140,7 @@
     <col min="7" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="24" customFormat="1" ht="23.25" customHeight="1" thickTop="1">
+    <row r="1" spans="1:19" s="24" customFormat="1" ht="23.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A1" s="69" t="s">
         <v>357</v>
       </c>
@@ -14145,7 +14163,7 @@
       <c r="R1" s="32"/>
       <c r="S1" s="32"/>
     </row>
-    <row r="2" spans="1:19" s="9" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
+    <row r="2" spans="1:19" s="9" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="72" t="s">
         <v>37</v>
       </c>
@@ -14168,7 +14186,7 @@
       <c r="R2" s="11"/>
       <c r="S2" s="11"/>
     </row>
-    <row r="3" spans="1:19" ht="21.95" customHeight="1">
+    <row r="3" spans="1:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="53" t="s">
         <v>266</v>
       </c>
@@ -14185,7 +14203,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="21.95" customHeight="1">
+    <row r="4" spans="1:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="18">
         <v>1</v>
       </c>
@@ -14202,7 +14220,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="21.95" customHeight="1">
+    <row r="5" spans="1:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="18">
         <v>2</v>
       </c>
@@ -14219,7 +14237,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="21.95" customHeight="1">
+    <row r="6" spans="1:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="18">
         <v>3</v>
       </c>
@@ -14236,7 +14254,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="21.95" customHeight="1">
+    <row r="7" spans="1:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="18">
         <v>4</v>
       </c>
@@ -14253,7 +14271,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="21.95" customHeight="1">
+    <row r="8" spans="1:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="18">
         <v>5</v>
       </c>
@@ -14270,7 +14288,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="9" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1">
+    <row r="9" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="18">
         <v>6</v>
       </c>
@@ -14301,7 +14319,7 @@
       <c r="R9" s="11"/>
       <c r="S9" s="11"/>
     </row>
-    <row r="10" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1">
+    <row r="10" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="18">
         <v>7</v>
       </c>
@@ -14332,7 +14350,7 @@
       <c r="R10" s="11"/>
       <c r="S10" s="11"/>
     </row>
-    <row r="11" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1">
+    <row r="11" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="18">
         <v>8</v>
       </c>
@@ -14363,7 +14381,7 @@
       <c r="R11" s="11"/>
       <c r="S11" s="11"/>
     </row>
-    <row r="12" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1">
+    <row r="12" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="18">
         <v>9</v>
       </c>
@@ -14394,7 +14412,7 @@
       <c r="R12" s="11"/>
       <c r="S12" s="11"/>
     </row>
-    <row r="13" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1">
+    <row r="13" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="18">
         <v>10</v>
       </c>
@@ -14425,7 +14443,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="11"/>
     </row>
-    <row r="14" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1">
+    <row r="14" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="18">
         <v>11</v>
       </c>
@@ -14456,7 +14474,7 @@
       <c r="R14" s="11"/>
       <c r="S14" s="11"/>
     </row>
-    <row r="15" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1">
+    <row r="15" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="18">
         <v>12</v>
       </c>
@@ -14487,7 +14505,7 @@
       <c r="R15" s="11"/>
       <c r="S15" s="11"/>
     </row>
-    <row r="16" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1">
+    <row r="16" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="18">
         <v>13</v>
       </c>
@@ -14518,7 +14536,7 @@
       <c r="R16" s="11"/>
       <c r="S16" s="11"/>
     </row>
-    <row r="17" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1">
+    <row r="17" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="18">
         <v>14</v>
       </c>
@@ -14549,7 +14567,7 @@
       <c r="R17" s="11"/>
       <c r="S17" s="11"/>
     </row>
-    <row r="18" spans="1:19" s="23" customFormat="1" ht="21.95" customHeight="1" thickBot="1">
+    <row r="18" spans="1:19" s="23" customFormat="1" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="18">
         <v>15</v>
       </c>
@@ -14580,7 +14598,7 @@
       <c r="R18" s="11"/>
       <c r="S18" s="11"/>
     </row>
-    <row r="19" spans="1:19" s="25" customFormat="1" ht="21.95" customHeight="1" thickTop="1">
+    <row r="19" spans="1:19" s="25" customFormat="1" ht="21.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A19" s="18">
         <v>16</v>
       </c>
@@ -14611,7 +14629,7 @@
       <c r="R19" s="11"/>
       <c r="S19" s="11"/>
     </row>
-    <row r="20" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1">
+    <row r="20" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="18">
         <v>17</v>
       </c>
@@ -14642,7 +14660,7 @@
       <c r="R20" s="11"/>
       <c r="S20" s="11"/>
     </row>
-    <row r="21" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1">
+    <row r="21" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="18">
         <v>18</v>
       </c>
@@ -14673,7 +14691,7 @@
       <c r="R21" s="11"/>
       <c r="S21" s="11"/>
     </row>
-    <row r="22" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1">
+    <row r="22" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="18">
         <v>19</v>
       </c>
@@ -14704,7 +14722,7 @@
       <c r="R22" s="11"/>
       <c r="S22" s="11"/>
     </row>
-    <row r="23" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1">
+    <row r="23" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="18">
         <v>20</v>
       </c>
@@ -14735,7 +14753,7 @@
       <c r="R23" s="11"/>
       <c r="S23" s="11"/>
     </row>
-    <row r="24" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1">
+    <row r="24" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="18">
         <v>21</v>
       </c>
@@ -14766,7 +14784,7 @@
       <c r="R24" s="11"/>
       <c r="S24" s="11"/>
     </row>
-    <row r="25" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1">
+    <row r="25" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="18">
         <v>22</v>
       </c>
@@ -14797,7 +14815,7 @@
       <c r="R25" s="11"/>
       <c r="S25" s="11"/>
     </row>
-    <row r="26" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1">
+    <row r="26" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="18">
         <v>23</v>
       </c>
@@ -14828,7 +14846,7 @@
       <c r="R26" s="11"/>
       <c r="S26" s="11"/>
     </row>
-    <row r="27" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1">
+    <row r="27" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="18">
         <v>24</v>
       </c>
@@ -14859,7 +14877,7 @@
       <c r="R27" s="11"/>
       <c r="S27" s="11"/>
     </row>
-    <row r="28" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1">
+    <row r="28" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="18">
         <v>25</v>
       </c>
@@ -14890,7 +14908,7 @@
       <c r="R28" s="11"/>
       <c r="S28" s="11"/>
     </row>
-    <row r="29" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1">
+    <row r="29" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="18">
         <v>26</v>
       </c>
@@ -14921,7 +14939,7 @@
       <c r="R29" s="11"/>
       <c r="S29" s="11"/>
     </row>
-    <row r="30" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1">
+    <row r="30" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="18">
         <v>27</v>
       </c>
@@ -14952,7 +14970,7 @@
       <c r="R30" s="11"/>
       <c r="S30" s="11"/>
     </row>
-    <row r="31" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1">
+    <row r="31" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="18">
         <v>28</v>
       </c>
@@ -14983,7 +15001,7 @@
       <c r="R31" s="11"/>
       <c r="S31" s="11"/>
     </row>
-    <row r="32" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1">
+    <row r="32" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="18">
         <v>29</v>
       </c>
@@ -15014,7 +15032,7 @@
       <c r="R32" s="11"/>
       <c r="S32" s="11"/>
     </row>
-    <row r="33" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1">
+    <row r="33" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="18">
         <v>30</v>
       </c>
@@ -15045,7 +15063,7 @@
       <c r="R33" s="11"/>
       <c r="S33" s="11"/>
     </row>
-    <row r="34" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1">
+    <row r="34" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="18">
         <v>31</v>
       </c>
@@ -15076,7 +15094,7 @@
       <c r="R34" s="11"/>
       <c r="S34" s="11"/>
     </row>
-    <row r="35" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1">
+    <row r="35" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="18">
         <v>32</v>
       </c>
@@ -15107,7 +15125,7 @@
       <c r="R35" s="11"/>
       <c r="S35" s="11"/>
     </row>
-    <row r="36" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1">
+    <row r="36" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="18">
         <v>33</v>
       </c>
@@ -15138,7 +15156,7 @@
       <c r="R36" s="11"/>
       <c r="S36" s="11"/>
     </row>
-    <row r="37" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1">
+    <row r="37" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="18">
         <v>34</v>
       </c>
@@ -15169,7 +15187,7 @@
       <c r="R37" s="11"/>
       <c r="S37" s="11"/>
     </row>
-    <row r="38" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1">
+    <row r="38" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="18">
         <v>35</v>
       </c>
@@ -15200,7 +15218,7 @@
       <c r="R38" s="11"/>
       <c r="S38" s="11"/>
     </row>
-    <row r="39" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1">
+    <row r="39" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="18">
         <v>36</v>
       </c>
@@ -15231,7 +15249,7 @@
       <c r="R39" s="11"/>
       <c r="S39" s="11"/>
     </row>
-    <row r="40" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1">
+    <row r="40" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="18">
         <v>37</v>
       </c>
@@ -15262,7 +15280,7 @@
       <c r="R40" s="11"/>
       <c r="S40" s="11"/>
     </row>
-    <row r="41" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1">
+    <row r="41" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="18">
         <v>38</v>
       </c>
@@ -15293,7 +15311,7 @@
       <c r="R41" s="11"/>
       <c r="S41" s="11"/>
     </row>
-    <row r="42" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1">
+    <row r="42" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="18">
         <v>39</v>
       </c>
@@ -15324,7 +15342,7 @@
       <c r="R42" s="11"/>
       <c r="S42" s="11"/>
     </row>
-    <row r="43" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1">
+    <row r="43" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="18">
         <v>40</v>
       </c>
@@ -15355,7 +15373,7 @@
       <c r="R43" s="11"/>
       <c r="S43" s="11"/>
     </row>
-    <row r="44" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1">
+    <row r="44" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="18">
         <v>41</v>
       </c>
@@ -15386,7 +15404,7 @@
       <c r="R44" s="11"/>
       <c r="S44" s="11"/>
     </row>
-    <row r="45" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1">
+    <row r="45" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="18">
         <v>42</v>
       </c>
@@ -15417,7 +15435,7 @@
       <c r="R45" s="11"/>
       <c r="S45" s="11"/>
     </row>
-    <row r="46" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1">
+    <row r="46" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="18">
         <v>43</v>
       </c>
@@ -15448,7 +15466,7 @@
       <c r="R46" s="11"/>
       <c r="S46" s="11"/>
     </row>
-    <row r="47" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1">
+    <row r="47" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="18">
         <v>44</v>
       </c>
@@ -15479,7 +15497,7 @@
       <c r="R47" s="11"/>
       <c r="S47" s="11"/>
     </row>
-    <row r="48" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1">
+    <row r="48" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="18">
         <v>45</v>
       </c>
@@ -15510,7 +15528,7 @@
       <c r="R48" s="11"/>
       <c r="S48" s="11"/>
     </row>
-    <row r="49" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1">
+    <row r="49" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="18">
         <v>46</v>
       </c>
@@ -15541,7 +15559,7 @@
       <c r="R49" s="11"/>
       <c r="S49" s="11"/>
     </row>
-    <row r="50" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1">
+    <row r="50" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="18">
         <v>47</v>
       </c>
@@ -15572,7 +15590,7 @@
       <c r="R50" s="11"/>
       <c r="S50" s="11"/>
     </row>
-    <row r="51" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1">
+    <row r="51" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="18">
         <v>48</v>
       </c>
@@ -15603,7 +15621,7 @@
       <c r="R51" s="11"/>
       <c r="S51" s="11"/>
     </row>
-    <row r="52" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1">
+    <row r="52" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="18">
         <v>49</v>
       </c>
@@ -15634,7 +15652,7 @@
       <c r="R52" s="11"/>
       <c r="S52" s="11"/>
     </row>
-    <row r="53" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1">
+    <row r="53" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="18">
         <v>50</v>
       </c>
@@ -15665,7 +15683,7 @@
       <c r="R53" s="11"/>
       <c r="S53" s="11"/>
     </row>
-    <row r="54" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1">
+    <row r="54" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="18">
         <v>51</v>
       </c>
@@ -15696,7 +15714,7 @@
       <c r="R54" s="11"/>
       <c r="S54" s="11"/>
     </row>
-    <row r="55" spans="1:19" s="23" customFormat="1" ht="21.95" customHeight="1" thickBot="1">
+    <row r="55" spans="1:19" s="23" customFormat="1" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A55" s="18">
         <v>52</v>
       </c>
@@ -15727,7 +15745,7 @@
       <c r="R55" s="11"/>
       <c r="S55" s="11"/>
     </row>
-    <row r="56" spans="1:19" s="25" customFormat="1" ht="21.95" customHeight="1" thickTop="1">
+    <row r="56" spans="1:19" s="25" customFormat="1" ht="21.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A56" s="18">
         <v>53</v>
       </c>
@@ -15758,7 +15776,7 @@
       <c r="R56" s="11"/>
       <c r="S56" s="11"/>
     </row>
-    <row r="57" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1">
+    <row r="57" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="18">
         <v>54</v>
       </c>
@@ -15789,7 +15807,7 @@
       <c r="R57" s="11"/>
       <c r="S57" s="11"/>
     </row>
-    <row r="58" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1">
+    <row r="58" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="18">
         <v>55</v>
       </c>
@@ -15820,7 +15838,7 @@
       <c r="R58" s="11"/>
       <c r="S58" s="11"/>
     </row>
-    <row r="59" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1">
+    <row r="59" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="18">
         <v>56</v>
       </c>
@@ -15851,7 +15869,7 @@
       <c r="R59" s="11"/>
       <c r="S59" s="11"/>
     </row>
-    <row r="60" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1">
+    <row r="60" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="18">
         <v>57</v>
       </c>
@@ -15882,7 +15900,7 @@
       <c r="R60" s="11"/>
       <c r="S60" s="11"/>
     </row>
-    <row r="61" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1">
+    <row r="61" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="18">
         <v>58</v>
       </c>
@@ -15913,7 +15931,7 @@
       <c r="R61" s="11"/>
       <c r="S61" s="11"/>
     </row>
-    <row r="62" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1">
+    <row r="62" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="18">
         <v>59</v>
       </c>
@@ -15944,7 +15962,7 @@
       <c r="R62" s="11"/>
       <c r="S62" s="11"/>
     </row>
-    <row r="63" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1">
+    <row r="63" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="18">
         <v>60</v>
       </c>
@@ -15975,7 +15993,7 @@
       <c r="R63" s="11"/>
       <c r="S63" s="11"/>
     </row>
-    <row r="64" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1">
+    <row r="64" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="18">
         <v>61</v>
       </c>
@@ -16006,7 +16024,7 @@
       <c r="R64" s="11"/>
       <c r="S64" s="11"/>
     </row>
-    <row r="65" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1">
+    <row r="65" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="18">
         <v>62</v>
       </c>
@@ -16037,7 +16055,7 @@
       <c r="R65" s="11"/>
       <c r="S65" s="11"/>
     </row>
-    <row r="66" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1">
+    <row r="66" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="18">
         <v>63</v>
       </c>
@@ -16068,7 +16086,7 @@
       <c r="R66" s="11"/>
       <c r="S66" s="11"/>
     </row>
-    <row r="67" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1">
+    <row r="67" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="18">
         <v>64</v>
       </c>
@@ -16099,7 +16117,7 @@
       <c r="R67" s="11"/>
       <c r="S67" s="11"/>
     </row>
-    <row r="68" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1">
+    <row r="68" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="18">
         <v>65</v>
       </c>
@@ -16130,7 +16148,7 @@
       <c r="R68" s="11"/>
       <c r="S68" s="11"/>
     </row>
-    <row r="69" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1">
+    <row r="69" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="18">
         <v>66</v>
       </c>
@@ -16161,7 +16179,7 @@
       <c r="R69" s="11"/>
       <c r="S69" s="11"/>
     </row>
-    <row r="70" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1">
+    <row r="70" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="18">
         <v>67</v>
       </c>
@@ -16192,7 +16210,7 @@
       <c r="R70" s="11"/>
       <c r="S70" s="11"/>
     </row>
-    <row r="71" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1">
+    <row r="71" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="18">
         <v>68</v>
       </c>
@@ -16223,7 +16241,7 @@
       <c r="R71" s="11"/>
       <c r="S71" s="11"/>
     </row>
-    <row r="72" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1">
+    <row r="72" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="18">
         <v>69</v>
       </c>
@@ -16254,7 +16272,7 @@
       <c r="R72" s="11"/>
       <c r="S72" s="11"/>
     </row>
-    <row r="73" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1">
+    <row r="73" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="18">
         <v>70</v>
       </c>
@@ -16285,7 +16303,7 @@
       <c r="R73" s="11"/>
       <c r="S73" s="11"/>
     </row>
-    <row r="74" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1">
+    <row r="74" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="18">
         <v>71</v>
       </c>
@@ -16316,7 +16334,7 @@
       <c r="R74" s="11"/>
       <c r="S74" s="11"/>
     </row>
-    <row r="75" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1">
+    <row r="75" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="18">
         <v>72</v>
       </c>
@@ -16347,7 +16365,7 @@
       <c r="R75" s="11"/>
       <c r="S75" s="11"/>
     </row>
-    <row r="76" spans="1:19" s="23" customFormat="1" ht="21.95" customHeight="1" thickBot="1">
+    <row r="76" spans="1:19" s="23" customFormat="1" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A76" s="18">
         <v>73</v>
       </c>
@@ -16378,7 +16396,7 @@
       <c r="R76" s="11"/>
       <c r="S76" s="11"/>
     </row>
-    <row r="77" spans="1:19" s="25" customFormat="1" ht="21.95" customHeight="1" thickTop="1">
+    <row r="77" spans="1:19" s="25" customFormat="1" ht="21.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A77" s="18">
         <v>74</v>
       </c>
@@ -16409,7 +16427,7 @@
       <c r="R77" s="11"/>
       <c r="S77" s="11"/>
     </row>
-    <row r="78" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1">
+    <row r="78" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="18">
         <v>75</v>
       </c>
@@ -16440,7 +16458,7 @@
       <c r="R78" s="11"/>
       <c r="S78" s="11"/>
     </row>
-    <row r="79" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1">
+    <row r="79" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="18">
         <v>76</v>
       </c>
@@ -16471,7 +16489,7 @@
       <c r="R79" s="11"/>
       <c r="S79" s="11"/>
     </row>
-    <row r="80" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1">
+    <row r="80" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="18">
         <v>77</v>
       </c>
@@ -16502,7 +16520,7 @@
       <c r="R80" s="11"/>
       <c r="S80" s="11"/>
     </row>
-    <row r="81" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1">
+    <row r="81" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="18">
         <v>78</v>
       </c>
@@ -16533,7 +16551,7 @@
       <c r="R81" s="11"/>
       <c r="S81" s="11"/>
     </row>
-    <row r="82" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1">
+    <row r="82" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="18">
         <v>79</v>
       </c>
@@ -16564,7 +16582,7 @@
       <c r="R82" s="11"/>
       <c r="S82" s="11"/>
     </row>
-    <row r="83" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1">
+    <row r="83" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="18">
         <v>80</v>
       </c>
@@ -16595,7 +16613,7 @@
       <c r="R83" s="11"/>
       <c r="S83" s="11"/>
     </row>
-    <row r="84" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1">
+    <row r="84" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="18">
         <v>81</v>
       </c>
@@ -16626,7 +16644,7 @@
       <c r="R84" s="11"/>
       <c r="S84" s="11"/>
     </row>
-    <row r="85" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1">
+    <row r="85" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="18">
         <v>82</v>
       </c>
@@ -16657,7 +16675,7 @@
       <c r="R85" s="11"/>
       <c r="S85" s="11"/>
     </row>
-    <row r="86" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1">
+    <row r="86" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="18">
         <v>83</v>
       </c>
@@ -16688,7 +16706,7 @@
       <c r="R86" s="11"/>
       <c r="S86" s="11"/>
     </row>
-    <row r="87" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1">
+    <row r="87" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="18">
         <v>84</v>
       </c>
@@ -16719,7 +16737,7 @@
       <c r="R87" s="11"/>
       <c r="S87" s="11"/>
     </row>
-    <row r="88" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1">
+    <row r="88" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="18">
         <v>85</v>
       </c>
@@ -16750,7 +16768,7 @@
       <c r="R88" s="11"/>
       <c r="S88" s="11"/>
     </row>
-    <row r="89" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1">
+    <row r="89" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="18">
         <v>86</v>
       </c>
@@ -16781,7 +16799,7 @@
       <c r="R89" s="11"/>
       <c r="S89" s="11"/>
     </row>
-    <row r="90" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1">
+    <row r="90" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="18">
         <v>87</v>
       </c>
@@ -16812,7 +16830,7 @@
       <c r="R90" s="11"/>
       <c r="S90" s="11"/>
     </row>
-    <row r="91" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1">
+    <row r="91" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="18">
         <v>88</v>
       </c>
@@ -16843,7 +16861,7 @@
       <c r="R91" s="11"/>
       <c r="S91" s="11"/>
     </row>
-    <row r="92" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1">
+    <row r="92" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="18">
         <v>89</v>
       </c>
@@ -16874,7 +16892,7 @@
       <c r="R92" s="11"/>
       <c r="S92" s="11"/>
     </row>
-    <row r="93" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1">
+    <row r="93" spans="1:19" s="9" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="18">
         <v>90</v>
       </c>
@@ -16905,7 +16923,7 @@
       <c r="R93" s="11"/>
       <c r="S93" s="11"/>
     </row>
-    <row r="94" spans="1:19" s="23" customFormat="1" ht="21.95" customHeight="1" thickBot="1">
+    <row r="94" spans="1:19" s="23" customFormat="1" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A94" s="18">
         <v>91</v>
       </c>
@@ -16936,7 +16954,7 @@
       <c r="R94" s="11"/>
       <c r="S94" s="11"/>
     </row>
-    <row r="95" spans="1:19" ht="21.95" customHeight="1" thickTop="1">
+    <row r="95" spans="1:19" ht="21.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A95" s="18">
         <v>92</v>
       </c>
@@ -16953,7 +16971,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="96" spans="1:19" ht="21.95" customHeight="1" thickBot="1">
+    <row r="96" spans="1:19" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A96" s="37">
         <v>93</v>
       </c>
@@ -16970,423 +16988,423 @@
         <v>363</v>
       </c>
     </row>
-    <row r="97" spans="4:5">
+    <row r="97" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D97" s="35"/>
       <c r="E97" s="35"/>
     </row>
-    <row r="98" spans="4:5">
+    <row r="98" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D98" s="35"/>
       <c r="E98" s="35"/>
     </row>
-    <row r="99" spans="4:5">
+    <row r="99" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D99" s="35"/>
       <c r="E99" s="35"/>
     </row>
-    <row r="100" spans="4:5">
+    <row r="100" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D100" s="35"/>
       <c r="E100" s="35"/>
     </row>
-    <row r="101" spans="4:5">
+    <row r="101" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D101" s="35"/>
       <c r="E101" s="35"/>
     </row>
-    <row r="102" spans="4:5">
+    <row r="102" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D102" s="35"/>
       <c r="E102" s="35"/>
     </row>
-    <row r="103" spans="4:5">
+    <row r="103" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D103" s="35"/>
       <c r="E103" s="35"/>
     </row>
-    <row r="104" spans="4:5">
+    <row r="104" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D104" s="35"/>
       <c r="E104" s="35"/>
     </row>
-    <row r="105" spans="4:5">
+    <row r="105" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D105" s="35"/>
       <c r="E105" s="35"/>
     </row>
-    <row r="106" spans="4:5">
+    <row r="106" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D106" s="35"/>
       <c r="E106" s="35"/>
     </row>
-    <row r="107" spans="4:5">
+    <row r="107" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D107" s="35"/>
       <c r="E107" s="35"/>
     </row>
-    <row r="108" spans="4:5">
+    <row r="108" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D108" s="35"/>
       <c r="E108" s="35"/>
     </row>
-    <row r="109" spans="4:5">
+    <row r="109" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D109" s="35"/>
       <c r="E109" s="35"/>
     </row>
-    <row r="110" spans="4:5">
+    <row r="110" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D110" s="35"/>
       <c r="E110" s="35"/>
     </row>
-    <row r="111" spans="4:5">
+    <row r="111" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D111" s="35"/>
       <c r="E111" s="35"/>
     </row>
-    <row r="112" spans="4:5">
+    <row r="112" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D112" s="35"/>
       <c r="E112" s="35"/>
     </row>
-    <row r="113" spans="4:5">
+    <row r="113" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D113" s="35"/>
       <c r="E113" s="35"/>
     </row>
-    <row r="114" spans="4:5">
+    <row r="114" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D114" s="35"/>
       <c r="E114" s="35"/>
     </row>
-    <row r="115" spans="4:5">
+    <row r="115" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D115" s="35"/>
       <c r="E115" s="35"/>
     </row>
-    <row r="116" spans="4:5">
+    <row r="116" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D116" s="35"/>
       <c r="E116" s="35"/>
     </row>
-    <row r="117" spans="4:5">
+    <row r="117" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D117" s="35"/>
       <c r="E117" s="35"/>
     </row>
-    <row r="118" spans="4:5">
+    <row r="118" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D118" s="35"/>
       <c r="E118" s="35"/>
     </row>
-    <row r="119" spans="4:5">
+    <row r="119" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D119" s="35"/>
       <c r="E119" s="35"/>
     </row>
-    <row r="120" spans="4:5">
+    <row r="120" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D120" s="35"/>
       <c r="E120" s="35"/>
     </row>
-    <row r="121" spans="4:5">
+    <row r="121" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D121" s="35"/>
       <c r="E121" s="35"/>
     </row>
-    <row r="122" spans="4:5">
+    <row r="122" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D122" s="35"/>
       <c r="E122" s="35"/>
     </row>
-    <row r="123" spans="4:5">
+    <row r="123" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D123" s="35"/>
       <c r="E123" s="35"/>
     </row>
-    <row r="124" spans="4:5">
+    <row r="124" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D124" s="35"/>
       <c r="E124" s="35"/>
     </row>
-    <row r="125" spans="4:5">
+    <row r="125" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D125" s="35"/>
       <c r="E125" s="35"/>
     </row>
-    <row r="126" spans="4:5">
+    <row r="126" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D126" s="35"/>
       <c r="E126" s="35"/>
     </row>
-    <row r="127" spans="4:5">
+    <row r="127" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D127" s="35"/>
       <c r="E127" s="35"/>
     </row>
-    <row r="128" spans="4:5">
+    <row r="128" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D128" s="35"/>
       <c r="E128" s="35"/>
     </row>
-    <row r="129" spans="4:5">
+    <row r="129" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D129" s="35"/>
       <c r="E129" s="35"/>
     </row>
-    <row r="130" spans="4:5">
+    <row r="130" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D130" s="35"/>
       <c r="E130" s="35"/>
     </row>
-    <row r="131" spans="4:5">
+    <row r="131" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D131" s="35"/>
       <c r="E131" s="35"/>
     </row>
-    <row r="132" spans="4:5">
+    <row r="132" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D132" s="35"/>
       <c r="E132" s="35"/>
     </row>
-    <row r="133" spans="4:5">
+    <row r="133" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D133" s="35"/>
       <c r="E133" s="35"/>
     </row>
-    <row r="134" spans="4:5">
+    <row r="134" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D134" s="35"/>
       <c r="E134" s="35"/>
     </row>
-    <row r="135" spans="4:5">
+    <row r="135" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D135" s="35"/>
       <c r="E135" s="35"/>
     </row>
-    <row r="136" spans="4:5">
+    <row r="136" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D136" s="35"/>
       <c r="E136" s="35"/>
     </row>
-    <row r="137" spans="4:5">
+    <row r="137" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D137" s="35"/>
       <c r="E137" s="35"/>
     </row>
-    <row r="138" spans="4:5">
+    <row r="138" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D138" s="35"/>
       <c r="E138" s="35"/>
     </row>
-    <row r="139" spans="4:5">
+    <row r="139" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D139" s="35"/>
       <c r="E139" s="35"/>
     </row>
-    <row r="140" spans="4:5">
+    <row r="140" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D140" s="35"/>
       <c r="E140" s="35"/>
     </row>
-    <row r="141" spans="4:5">
+    <row r="141" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D141" s="35"/>
       <c r="E141" s="35"/>
     </row>
-    <row r="142" spans="4:5">
+    <row r="142" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D142" s="35"/>
       <c r="E142" s="35"/>
     </row>
-    <row r="143" spans="4:5">
+    <row r="143" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D143" s="35"/>
       <c r="E143" s="35"/>
     </row>
-    <row r="144" spans="4:5">
+    <row r="144" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D144" s="35"/>
       <c r="E144" s="35"/>
     </row>
-    <row r="145" spans="4:5">
+    <row r="145" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D145" s="35"/>
       <c r="E145" s="35"/>
     </row>
-    <row r="146" spans="4:5">
+    <row r="146" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D146" s="35"/>
       <c r="E146" s="35"/>
     </row>
-    <row r="147" spans="4:5">
+    <row r="147" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D147" s="35"/>
       <c r="E147" s="35"/>
     </row>
-    <row r="148" spans="4:5">
+    <row r="148" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D148" s="35"/>
       <c r="E148" s="35"/>
     </row>
-    <row r="149" spans="4:5">
+    <row r="149" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D149" s="35"/>
       <c r="E149" s="35"/>
     </row>
-    <row r="150" spans="4:5">
+    <row r="150" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D150" s="35"/>
       <c r="E150" s="35"/>
     </row>
-    <row r="151" spans="4:5">
+    <row r="151" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D151" s="35"/>
       <c r="E151" s="35"/>
     </row>
-    <row r="152" spans="4:5">
+    <row r="152" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D152" s="35"/>
       <c r="E152" s="35"/>
     </row>
-    <row r="153" spans="4:5">
+    <row r="153" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D153" s="35"/>
       <c r="E153" s="35"/>
     </row>
-    <row r="154" spans="4:5">
+    <row r="154" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D154" s="35"/>
       <c r="E154" s="35"/>
     </row>
-    <row r="155" spans="4:5">
+    <row r="155" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D155" s="35"/>
       <c r="E155" s="35"/>
     </row>
-    <row r="156" spans="4:5">
+    <row r="156" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D156" s="35"/>
       <c r="E156" s="35"/>
     </row>
-    <row r="157" spans="4:5">
+    <row r="157" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D157" s="35"/>
       <c r="E157" s="35"/>
     </row>
-    <row r="158" spans="4:5">
+    <row r="158" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D158" s="35"/>
       <c r="E158" s="35"/>
     </row>
-    <row r="159" spans="4:5">
+    <row r="159" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D159" s="35"/>
       <c r="E159" s="35"/>
     </row>
-    <row r="160" spans="4:5">
+    <row r="160" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D160" s="35"/>
       <c r="E160" s="35"/>
     </row>
-    <row r="161" spans="4:5">
+    <row r="161" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D161" s="35"/>
       <c r="E161" s="35"/>
     </row>
-    <row r="162" spans="4:5">
+    <row r="162" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D162" s="35"/>
       <c r="E162" s="35"/>
     </row>
-    <row r="163" spans="4:5">
+    <row r="163" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D163" s="35"/>
       <c r="E163" s="35"/>
     </row>
-    <row r="164" spans="4:5">
+    <row r="164" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D164" s="35"/>
       <c r="E164" s="35"/>
     </row>
-    <row r="165" spans="4:5">
+    <row r="165" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D165" s="35"/>
       <c r="E165" s="35"/>
     </row>
-    <row r="166" spans="4:5">
+    <row r="166" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D166" s="35"/>
       <c r="E166" s="35"/>
     </row>
-    <row r="167" spans="4:5">
+    <row r="167" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D167" s="35"/>
       <c r="E167" s="35"/>
     </row>
-    <row r="168" spans="4:5">
+    <row r="168" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D168" s="35"/>
       <c r="E168" s="35"/>
     </row>
-    <row r="169" spans="4:5">
+    <row r="169" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D169" s="35"/>
       <c r="E169" s="35"/>
     </row>
-    <row r="170" spans="4:5">
+    <row r="170" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D170" s="35"/>
       <c r="E170" s="35"/>
     </row>
-    <row r="171" spans="4:5">
+    <row r="171" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D171" s="35"/>
       <c r="E171" s="35"/>
     </row>
-    <row r="172" spans="4:5">
+    <row r="172" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D172" s="35"/>
       <c r="E172" s="35"/>
     </row>
-    <row r="173" spans="4:5">
+    <row r="173" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D173" s="35"/>
       <c r="E173" s="35"/>
     </row>
-    <row r="174" spans="4:5">
+    <row r="174" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D174" s="35"/>
       <c r="E174" s="35"/>
     </row>
-    <row r="175" spans="4:5">
+    <row r="175" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D175" s="35"/>
       <c r="E175" s="35"/>
     </row>
-    <row r="176" spans="4:5">
+    <row r="176" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D176" s="35"/>
       <c r="E176" s="35"/>
     </row>
-    <row r="177" spans="4:5">
+    <row r="177" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D177" s="35"/>
       <c r="E177" s="35"/>
     </row>
-    <row r="178" spans="4:5">
+    <row r="178" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D178" s="35"/>
       <c r="E178" s="35"/>
     </row>
-    <row r="179" spans="4:5">
+    <row r="179" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D179" s="35"/>
       <c r="E179" s="35"/>
     </row>
-    <row r="180" spans="4:5">
+    <row r="180" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D180" s="35"/>
       <c r="E180" s="35"/>
     </row>
-    <row r="181" spans="4:5">
+    <row r="181" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D181" s="35"/>
       <c r="E181" s="35"/>
     </row>
-    <row r="182" spans="4:5">
+    <row r="182" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D182" s="35"/>
       <c r="E182" s="35"/>
     </row>
-    <row r="183" spans="4:5">
+    <row r="183" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D183" s="35"/>
       <c r="E183" s="35"/>
     </row>
-    <row r="184" spans="4:5">
+    <row r="184" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D184" s="35"/>
       <c r="E184" s="35"/>
     </row>
-    <row r="185" spans="4:5">
+    <row r="185" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D185" s="35"/>
       <c r="E185" s="35"/>
     </row>
-    <row r="186" spans="4:5">
+    <row r="186" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D186" s="35"/>
       <c r="E186" s="35"/>
     </row>
-    <row r="187" spans="4:5">
+    <row r="187" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D187" s="35"/>
       <c r="E187" s="35"/>
     </row>
-    <row r="188" spans="4:5">
+    <row r="188" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D188" s="35"/>
       <c r="E188" s="35"/>
     </row>
-    <row r="189" spans="4:5">
+    <row r="189" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D189" s="35"/>
       <c r="E189" s="35"/>
     </row>
-    <row r="190" spans="4:5">
+    <row r="190" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D190" s="35"/>
       <c r="E190" s="35"/>
     </row>
-    <row r="191" spans="4:5">
+    <row r="191" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D191" s="35"/>
       <c r="E191" s="35"/>
     </row>
-    <row r="192" spans="4:5">
+    <row r="192" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D192" s="35"/>
       <c r="E192" s="35"/>
     </row>
-    <row r="193" spans="4:5">
+    <row r="193" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D193" s="35"/>
       <c r="E193" s="35"/>
     </row>
-    <row r="194" spans="4:5">
+    <row r="194" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D194" s="35"/>
       <c r="E194" s="35"/>
     </row>
-    <row r="195" spans="4:5">
+    <row r="195" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D195" s="35"/>
       <c r="E195" s="35"/>
     </row>
-    <row r="196" spans="4:5">
+    <row r="196" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D196" s="35"/>
       <c r="E196" s="35"/>
     </row>
-    <row r="197" spans="4:5">
+    <row r="197" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D197" s="35"/>
       <c r="E197" s="35"/>
     </row>
-    <row r="198" spans="4:5">
+    <row r="198" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D198" s="35"/>
       <c r="E198" s="35"/>
     </row>
-    <row r="199" spans="4:5">
+    <row r="199" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D199" s="35"/>
       <c r="E199" s="35"/>
     </row>
-    <row r="200" spans="4:5">
+    <row r="200" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D200" s="35"/>
       <c r="E200" s="35"/>
     </row>
-    <row r="201" spans="4:5">
+    <row r="201" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D201" s="35"/>
       <c r="E201" s="35"/>
     </row>
@@ -17405,7 +17423,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC304"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17415,7 +17433,7 @@
       <selection pane="bottomRight" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.5" style="26" customWidth="1"/>
     <col min="2" max="2" width="6.375" style="36" bestFit="1" customWidth="1"/>
@@ -17426,7 +17444,7 @@
     <col min="30" max="16384" width="9" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="11" customFormat="1" ht="27.75" customHeight="1">
+    <row r="1" spans="1:29" s="11" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="69" t="s">
         <v>1092</v>
       </c>
@@ -17435,7 +17453,7 @@
       <c r="D1" s="69"/>
       <c r="E1" s="69"/>
     </row>
-    <row r="2" spans="1:29" s="27" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
+    <row r="2" spans="1:29" s="27" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="71" t="s">
         <v>38</v>
       </c>
@@ -17468,7 +17486,7 @@
       <c r="AB2" s="11"/>
       <c r="AC2" s="11"/>
     </row>
-    <row r="3" spans="1:29" s="10" customFormat="1" ht="21.95" customHeight="1">
+    <row r="3" spans="1:29" s="10" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="53" t="s">
         <v>266</v>
       </c>
@@ -17509,7 +17527,7 @@
       <c r="AB3" s="13"/>
       <c r="AC3" s="13"/>
     </row>
-    <row r="4" spans="1:29" s="9" customFormat="1" ht="21.95" customHeight="1">
+    <row r="4" spans="1:29" s="9" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="18">
         <v>1</v>
       </c>
@@ -17550,7 +17568,7 @@
       <c r="AB4" s="11"/>
       <c r="AC4" s="11"/>
     </row>
-    <row r="5" spans="1:29" s="9" customFormat="1" ht="21.95" customHeight="1">
+    <row r="5" spans="1:29" s="9" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="18">
         <v>2</v>
       </c>
@@ -17591,7 +17609,7 @@
       <c r="AB5" s="11"/>
       <c r="AC5" s="11"/>
     </row>
-    <row r="6" spans="1:29" s="9" customFormat="1" ht="21.95" customHeight="1">
+    <row r="6" spans="1:29" s="9" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="18">
         <v>3</v>
       </c>
@@ -17632,7 +17650,7 @@
       <c r="AB6" s="11"/>
       <c r="AC6" s="11"/>
     </row>
-    <row r="7" spans="1:29" s="9" customFormat="1" ht="21.95" customHeight="1">
+    <row r="7" spans="1:29" s="9" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="18">
         <v>4</v>
       </c>
@@ -17673,7 +17691,7 @@
       <c r="AB7" s="11"/>
       <c r="AC7" s="11"/>
     </row>
-    <row r="8" spans="1:29" s="9" customFormat="1" ht="21.95" customHeight="1">
+    <row r="8" spans="1:29" s="9" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="18">
         <v>5</v>
       </c>
@@ -17714,7 +17732,7 @@
       <c r="AB8" s="11"/>
       <c r="AC8" s="11"/>
     </row>
-    <row r="9" spans="1:29" s="9" customFormat="1" ht="21.95" customHeight="1">
+    <row r="9" spans="1:29" s="9" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="18">
         <v>6</v>
       </c>
@@ -17755,7 +17773,7 @@
       <c r="AB9" s="11"/>
       <c r="AC9" s="11"/>
     </row>
-    <row r="10" spans="1:29" s="9" customFormat="1" ht="21.95" customHeight="1">
+    <row r="10" spans="1:29" s="9" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="18">
         <v>7</v>
       </c>
@@ -17796,7 +17814,7 @@
       <c r="AB10" s="11"/>
       <c r="AC10" s="11"/>
     </row>
-    <row r="11" spans="1:29" s="9" customFormat="1" ht="21.95" customHeight="1">
+    <row r="11" spans="1:29" s="9" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="18">
         <v>8</v>
       </c>
@@ -17837,7 +17855,7 @@
       <c r="AB11" s="11"/>
       <c r="AC11" s="11"/>
     </row>
-    <row r="12" spans="1:29" s="9" customFormat="1" ht="21.95" customHeight="1">
+    <row r="12" spans="1:29" s="9" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="18">
         <v>9</v>
       </c>
@@ -17878,7 +17896,7 @@
       <c r="AB12" s="11"/>
       <c r="AC12" s="11"/>
     </row>
-    <row r="13" spans="1:29" s="9" customFormat="1" ht="21.95" customHeight="1">
+    <row r="13" spans="1:29" s="9" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="18">
         <v>10</v>
       </c>
@@ -17919,7 +17937,7 @@
       <c r="AB13" s="11"/>
       <c r="AC13" s="11"/>
     </row>
-    <row r="14" spans="1:29" s="9" customFormat="1" ht="21.95" customHeight="1">
+    <row r="14" spans="1:29" s="9" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="18">
         <v>11</v>
       </c>
@@ -17960,7 +17978,7 @@
       <c r="AB14" s="11"/>
       <c r="AC14" s="11"/>
     </row>
-    <row r="15" spans="1:29" s="9" customFormat="1" ht="21.95" customHeight="1">
+    <row r="15" spans="1:29" s="9" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="18">
         <v>12</v>
       </c>
@@ -18001,7 +18019,7 @@
       <c r="AB15" s="11"/>
       <c r="AC15" s="11"/>
     </row>
-    <row r="16" spans="1:29" s="9" customFormat="1" ht="21.95" customHeight="1">
+    <row r="16" spans="1:29" s="9" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="18">
         <v>13</v>
       </c>
@@ -18042,7 +18060,7 @@
       <c r="AB16" s="11"/>
       <c r="AC16" s="11"/>
     </row>
-    <row r="17" spans="1:29" s="23" customFormat="1" ht="21.95" customHeight="1" thickBot="1">
+    <row r="17" spans="1:29" s="23" customFormat="1" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="18">
         <v>14</v>
       </c>
@@ -18083,7 +18101,7 @@
       <c r="AB17" s="11"/>
       <c r="AC17" s="11"/>
     </row>
-    <row r="18" spans="1:29" s="25" customFormat="1" ht="21.95" customHeight="1" thickTop="1">
+    <row r="18" spans="1:29" s="25" customFormat="1" ht="21.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A18" s="18">
         <v>15</v>
       </c>
@@ -18124,7 +18142,7 @@
       <c r="AB18" s="11"/>
       <c r="AC18" s="11"/>
     </row>
-    <row r="19" spans="1:29" s="9" customFormat="1" ht="21.95" customHeight="1">
+    <row r="19" spans="1:29" s="9" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="18">
         <v>16</v>
       </c>
@@ -18165,7 +18183,7 @@
       <c r="AB19" s="11"/>
       <c r="AC19" s="11"/>
     </row>
-    <row r="20" spans="1:29" s="9" customFormat="1" ht="21.95" customHeight="1">
+    <row r="20" spans="1:29" s="9" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="18">
         <v>17</v>
       </c>
@@ -18206,7 +18224,7 @@
       <c r="AB20" s="11"/>
       <c r="AC20" s="11"/>
     </row>
-    <row r="21" spans="1:29" s="9" customFormat="1" ht="21.95" customHeight="1">
+    <row r="21" spans="1:29" s="9" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="18">
         <v>18</v>
       </c>
@@ -18247,7 +18265,7 @@
       <c r="AB21" s="11"/>
       <c r="AC21" s="11"/>
     </row>
-    <row r="22" spans="1:29" s="9" customFormat="1" ht="21.95" customHeight="1">
+    <row r="22" spans="1:29" s="9" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="18">
         <v>19</v>
       </c>
@@ -18288,7 +18306,7 @@
       <c r="AB22" s="11"/>
       <c r="AC22" s="11"/>
     </row>
-    <row r="23" spans="1:29" s="9" customFormat="1" ht="21.95" customHeight="1">
+    <row r="23" spans="1:29" s="9" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="18">
         <v>20</v>
       </c>
@@ -18329,7 +18347,7 @@
       <c r="AB23" s="11"/>
       <c r="AC23" s="11"/>
     </row>
-    <row r="24" spans="1:29" s="9" customFormat="1" ht="21.95" customHeight="1">
+    <row r="24" spans="1:29" s="9" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="18">
         <v>21</v>
       </c>
@@ -18370,7 +18388,7 @@
       <c r="AB24" s="11"/>
       <c r="AC24" s="11"/>
     </row>
-    <row r="25" spans="1:29" s="9" customFormat="1" ht="21.95" customHeight="1">
+    <row r="25" spans="1:29" s="9" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="18">
         <v>22</v>
       </c>
@@ -18411,7 +18429,7 @@
       <c r="AB25" s="11"/>
       <c r="AC25" s="11"/>
     </row>
-    <row r="26" spans="1:29" s="9" customFormat="1" ht="21.95" customHeight="1">
+    <row r="26" spans="1:29" s="9" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="18">
         <v>23</v>
       </c>
@@ -18452,7 +18470,7 @@
       <c r="AB26" s="11"/>
       <c r="AC26" s="11"/>
     </row>
-    <row r="27" spans="1:29" s="9" customFormat="1" ht="21.95" customHeight="1">
+    <row r="27" spans="1:29" s="9" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="18">
         <v>24</v>
       </c>
@@ -18493,7 +18511,7 @@
       <c r="AB27" s="11"/>
       <c r="AC27" s="11"/>
     </row>
-    <row r="28" spans="1:29" s="9" customFormat="1" ht="21.95" customHeight="1">
+    <row r="28" spans="1:29" s="9" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="18">
         <v>25</v>
       </c>
@@ -18534,7 +18552,7 @@
       <c r="AB28" s="11"/>
       <c r="AC28" s="11"/>
     </row>
-    <row r="29" spans="1:29" s="9" customFormat="1" ht="21.95" customHeight="1">
+    <row r="29" spans="1:29" s="9" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="18">
         <v>26</v>
       </c>
@@ -18575,7 +18593,7 @@
       <c r="AB29" s="11"/>
       <c r="AC29" s="11"/>
     </row>
-    <row r="30" spans="1:29" s="9" customFormat="1" ht="21.95" customHeight="1">
+    <row r="30" spans="1:29" s="9" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="18">
         <v>27</v>
       </c>
@@ -18616,7 +18634,7 @@
       <c r="AB30" s="11"/>
       <c r="AC30" s="11"/>
     </row>
-    <row r="31" spans="1:29" s="9" customFormat="1" ht="21.95" customHeight="1">
+    <row r="31" spans="1:29" s="9" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="18">
         <v>28</v>
       </c>
@@ -18657,7 +18675,7 @@
       <c r="AB31" s="11"/>
       <c r="AC31" s="11"/>
     </row>
-    <row r="32" spans="1:29" s="9" customFormat="1" ht="21.95" customHeight="1">
+    <row r="32" spans="1:29" s="9" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="18">
         <v>29</v>
       </c>
@@ -18698,7 +18716,7 @@
       <c r="AB32" s="11"/>
       <c r="AC32" s="11"/>
     </row>
-    <row r="33" spans="1:29" s="9" customFormat="1" ht="21.95" customHeight="1">
+    <row r="33" spans="1:29" s="9" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="18">
         <v>30</v>
       </c>
@@ -18739,7 +18757,7 @@
       <c r="AB33" s="11"/>
       <c r="AC33" s="11"/>
     </row>
-    <row r="34" spans="1:29" s="9" customFormat="1" ht="21.95" customHeight="1">
+    <row r="34" spans="1:29" s="9" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="18">
         <v>31</v>
       </c>
@@ -18780,7 +18798,7 @@
       <c r="AB34" s="11"/>
       <c r="AC34" s="11"/>
     </row>
-    <row r="35" spans="1:29" s="9" customFormat="1" ht="21.95" customHeight="1">
+    <row r="35" spans="1:29" s="9" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="18">
         <v>32</v>
       </c>
@@ -18821,7 +18839,7 @@
       <c r="AB35" s="11"/>
       <c r="AC35" s="11"/>
     </row>
-    <row r="36" spans="1:29" s="9" customFormat="1" ht="21.95" customHeight="1">
+    <row r="36" spans="1:29" s="9" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="18">
         <v>33</v>
       </c>
@@ -18862,7 +18880,7 @@
       <c r="AB36" s="11"/>
       <c r="AC36" s="11"/>
     </row>
-    <row r="37" spans="1:29" s="23" customFormat="1" ht="21.95" customHeight="1" thickBot="1">
+    <row r="37" spans="1:29" s="23" customFormat="1" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A37" s="18">
         <v>34</v>
       </c>
@@ -18903,7 +18921,7 @@
       <c r="AB37" s="11"/>
       <c r="AC37" s="11"/>
     </row>
-    <row r="38" spans="1:29" ht="21.95" customHeight="1" thickTop="1">
+    <row r="38" spans="1:29" ht="21.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A38" s="18">
         <v>35</v>
       </c>
@@ -18920,7 +18938,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="39" spans="1:29" ht="21.95" customHeight="1">
+    <row r="39" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="18">
         <v>36</v>
       </c>
@@ -18937,7 +18955,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="40" spans="1:29" ht="21.95" customHeight="1">
+    <row r="40" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="18">
         <v>37</v>
       </c>
@@ -18954,7 +18972,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:29" ht="21.95" customHeight="1">
+    <row r="41" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="18">
         <v>38</v>
       </c>
@@ -18971,7 +18989,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="42" spans="1:29" ht="21.95" customHeight="1">
+    <row r="42" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="18">
         <v>39</v>
       </c>
@@ -18988,7 +19006,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="43" spans="1:29" ht="21.95" customHeight="1">
+    <row r="43" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="18">
         <v>40</v>
       </c>
@@ -19005,7 +19023,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="44" spans="1:29" ht="21.95" customHeight="1">
+    <row r="44" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="18">
         <v>41</v>
       </c>
@@ -19022,7 +19040,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="45" spans="1:29" ht="21.95" customHeight="1">
+    <row r="45" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="18">
         <v>42</v>
       </c>
@@ -19039,7 +19057,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="46" spans="1:29" ht="21.95" customHeight="1">
+    <row r="46" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="18">
         <v>43</v>
       </c>
@@ -19056,7 +19074,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="47" spans="1:29" ht="21.95" customHeight="1">
+    <row r="47" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="18">
         <v>44</v>
       </c>
@@ -19073,7 +19091,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="48" spans="1:29" ht="21.95" customHeight="1">
+    <row r="48" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="18">
         <v>45</v>
       </c>
@@ -19090,7 +19108,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="49" spans="1:29" ht="21.95" customHeight="1">
+    <row r="49" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="18">
         <v>46</v>
       </c>
@@ -19107,7 +19125,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="50" spans="1:29" ht="21.95" customHeight="1">
+    <row r="50" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="18">
         <v>47</v>
       </c>
@@ -19124,7 +19142,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="51" spans="1:29" s="11" customFormat="1" ht="21.95" customHeight="1">
+    <row r="51" spans="1:29" s="11" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="18">
         <v>48</v>
       </c>
@@ -19141,7 +19159,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="52" spans="1:29" ht="21.95" customHeight="1">
+    <row r="52" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="18">
         <v>49</v>
       </c>
@@ -19158,7 +19176,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="53" spans="1:29" ht="21.95" customHeight="1">
+    <row r="53" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="18">
         <v>50</v>
       </c>
@@ -19175,7 +19193,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="54" spans="1:29" s="11" customFormat="1" ht="21.95" customHeight="1">
+    <row r="54" spans="1:29" s="11" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="18">
         <v>51</v>
       </c>
@@ -19192,7 +19210,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="55" spans="1:29" s="11" customFormat="1" ht="21.95" customHeight="1">
+    <row r="55" spans="1:29" s="11" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="18">
         <v>52</v>
       </c>
@@ -19209,7 +19227,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="56" spans="1:29" s="11" customFormat="1" ht="21.95" customHeight="1">
+    <row r="56" spans="1:29" s="11" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="18">
         <v>53</v>
       </c>
@@ -19226,7 +19244,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="57" spans="1:29" s="11" customFormat="1" ht="21.95" customHeight="1">
+    <row r="57" spans="1:29" s="11" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="18">
         <v>54</v>
       </c>
@@ -19243,7 +19261,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="58" spans="1:29" s="11" customFormat="1" ht="21.95" customHeight="1">
+    <row r="58" spans="1:29" s="11" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="18">
         <v>55</v>
       </c>
@@ -19260,7 +19278,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="59" spans="1:29" s="9" customFormat="1" ht="21.95" customHeight="1">
+    <row r="59" spans="1:29" s="9" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="18">
         <v>56</v>
       </c>
@@ -19301,7 +19319,7 @@
       <c r="AB59" s="11"/>
       <c r="AC59" s="11"/>
     </row>
-    <row r="60" spans="1:29" s="9" customFormat="1" ht="21.95" customHeight="1">
+    <row r="60" spans="1:29" s="9" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="18">
         <v>57</v>
       </c>
@@ -19342,7 +19360,7 @@
       <c r="AB60" s="11"/>
       <c r="AC60" s="11"/>
     </row>
-    <row r="61" spans="1:29" ht="21.95" customHeight="1">
+    <row r="61" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="18">
         <v>58</v>
       </c>
@@ -19359,7 +19377,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="62" spans="1:29" ht="21.95" customHeight="1">
+    <row r="62" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="18">
         <v>59</v>
       </c>
@@ -19376,7 +19394,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="63" spans="1:29" ht="21.95" customHeight="1">
+    <row r="63" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="18">
         <v>60</v>
       </c>
@@ -19393,7 +19411,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="64" spans="1:29" ht="21.95" customHeight="1">
+    <row r="64" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="18">
         <v>61</v>
       </c>
@@ -19410,7 +19428,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="21.95" customHeight="1">
+    <row r="65" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="18">
         <v>62</v>
       </c>
@@ -19427,7 +19445,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="21.95" customHeight="1">
+    <row r="66" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="18">
         <v>63</v>
       </c>
@@ -19444,7 +19462,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="21.95" customHeight="1">
+    <row r="67" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="18">
         <v>64</v>
       </c>
@@ -19461,7 +19479,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="21.95" customHeight="1">
+    <row r="68" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="18">
         <v>65</v>
       </c>
@@ -19478,7 +19496,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="21.95" customHeight="1">
+    <row r="69" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="18">
         <v>66</v>
       </c>
@@ -19495,7 +19513,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="21.95" customHeight="1">
+    <row r="70" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="18">
         <v>67</v>
       </c>
@@ -19512,7 +19530,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="21.95" customHeight="1">
+    <row r="71" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="18">
         <v>68</v>
       </c>
@@ -19529,7 +19547,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="21.95" customHeight="1">
+    <row r="72" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="18">
         <v>69</v>
       </c>
@@ -19546,7 +19564,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="21.95" customHeight="1">
+    <row r="73" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="18">
         <v>70</v>
       </c>
@@ -19563,7 +19581,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="21.95" customHeight="1">
+    <row r="74" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="18">
         <v>71</v>
       </c>
@@ -19580,7 +19598,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="21.95" customHeight="1">
+    <row r="75" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="18">
         <v>72</v>
       </c>
@@ -19597,7 +19615,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="21.95" customHeight="1">
+    <row r="76" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="18">
         <v>73</v>
       </c>
@@ -19614,7 +19632,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="21.95" customHeight="1">
+    <row r="77" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="18">
         <v>74</v>
       </c>
@@ -19631,7 +19649,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="21.95" customHeight="1">
+    <row r="78" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="18">
         <v>75</v>
       </c>
@@ -19648,7 +19666,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="21.95" customHeight="1">
+    <row r="79" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="18">
         <v>76</v>
       </c>
@@ -19665,7 +19683,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="21.95" customHeight="1">
+    <row r="80" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="18">
         <v>77</v>
       </c>
@@ -19682,7 +19700,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="21.95" customHeight="1">
+    <row r="81" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="18">
         <v>78</v>
       </c>
@@ -19699,7 +19717,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="21.95" customHeight="1">
+    <row r="82" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="18">
         <v>79</v>
       </c>
@@ -19716,7 +19734,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="21.95" customHeight="1">
+    <row r="83" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="18">
         <v>80</v>
       </c>
@@ -19733,7 +19751,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="21.95" customHeight="1">
+    <row r="84" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="18">
         <v>81</v>
       </c>
@@ -19750,7 +19768,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="21.95" customHeight="1">
+    <row r="85" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="18">
         <v>82</v>
       </c>
@@ -19767,7 +19785,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="21.95" customHeight="1">
+    <row r="86" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="18">
         <v>83</v>
       </c>
@@ -19784,7 +19802,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="21.95" customHeight="1">
+    <row r="87" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="18">
         <v>84</v>
       </c>
@@ -19801,7 +19819,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="21.95" customHeight="1">
+    <row r="88" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="18">
         <v>85</v>
       </c>
@@ -19818,7 +19836,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="21.95" customHeight="1">
+    <row r="89" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="18">
         <v>86</v>
       </c>
@@ -19835,7 +19853,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="21.95" customHeight="1">
+    <row r="90" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="18">
         <v>87</v>
       </c>
@@ -19852,7 +19870,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="21.95" customHeight="1">
+    <row r="91" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="18">
         <v>88</v>
       </c>
@@ -19869,7 +19887,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="21.95" customHeight="1">
+    <row r="92" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="18">
         <v>89</v>
       </c>
@@ -19886,7 +19904,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="21.95" customHeight="1">
+    <row r="93" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="18">
         <v>90</v>
       </c>
@@ -19903,7 +19921,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="21.95" customHeight="1">
+    <row r="94" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="18">
         <v>91</v>
       </c>
@@ -19920,7 +19938,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="21.95" customHeight="1">
+    <row r="95" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="18">
         <v>92</v>
       </c>
@@ -19937,7 +19955,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="21.95" customHeight="1">
+    <row r="96" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="18">
         <v>93</v>
       </c>
@@ -19954,7 +19972,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="21.95" customHeight="1">
+    <row r="97" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="18">
         <v>94</v>
       </c>
@@ -19971,7 +19989,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="21.95" customHeight="1">
+    <row r="98" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="18">
         <v>95</v>
       </c>
@@ -19988,7 +20006,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="21.95" customHeight="1">
+    <row r="99" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="18">
         <v>96</v>
       </c>
@@ -20005,7 +20023,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="21.95" customHeight="1">
+    <row r="100" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="18">
         <v>97</v>
       </c>
@@ -20022,7 +20040,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="21.95" customHeight="1">
+    <row r="101" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="18">
         <v>98</v>
       </c>
@@ -20039,7 +20057,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="21.95" customHeight="1">
+    <row r="102" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="18">
         <v>99</v>
       </c>
@@ -20056,7 +20074,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="21.95" customHeight="1">
+    <row r="103" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="18">
         <v>100</v>
       </c>
@@ -20073,7 +20091,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="21.95" customHeight="1">
+    <row r="104" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="18">
         <v>101</v>
       </c>
@@ -20090,7 +20108,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="21.95" customHeight="1" thickBot="1">
+    <row r="105" spans="1:5" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A105" s="37">
         <v>102</v>
       </c>
@@ -20107,629 +20125,629 @@
         <v>36</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="21.95" customHeight="1">
+    <row r="106" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="11"/>
       <c r="B106" s="38"/>
       <c r="C106" s="11"/>
       <c r="D106" s="11"/>
       <c r="E106" s="11"/>
     </row>
-    <row r="107" spans="1:5" ht="21.95" customHeight="1">
+    <row r="107" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="11"/>
       <c r="B107" s="38"/>
       <c r="C107" s="11"/>
       <c r="D107" s="11"/>
       <c r="E107" s="11"/>
     </row>
-    <row r="108" spans="1:5" ht="21.95" customHeight="1">
+    <row r="108" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="11"/>
       <c r="B108" s="38"/>
       <c r="C108" s="11"/>
       <c r="D108" s="11"/>
       <c r="E108" s="11"/>
     </row>
-    <row r="109" spans="1:5" ht="21.95" customHeight="1">
+    <row r="109" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="11"/>
       <c r="B109" s="38"/>
       <c r="C109" s="11"/>
       <c r="D109" s="11"/>
       <c r="E109" s="11"/>
     </row>
-    <row r="110" spans="1:5" ht="21.95" customHeight="1">
+    <row r="110" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="11"/>
       <c r="B110" s="38"/>
       <c r="C110" s="11"/>
       <c r="D110" s="11"/>
       <c r="E110" s="11"/>
     </row>
-    <row r="111" spans="1:5" ht="21.95" customHeight="1">
+    <row r="111" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="11"/>
       <c r="B111" s="38"/>
       <c r="C111" s="11"/>
       <c r="D111" s="11"/>
       <c r="E111" s="11"/>
     </row>
-    <row r="112" spans="1:5" ht="21.95" customHeight="1">
+    <row r="112" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="11"/>
       <c r="B112" s="40"/>
       <c r="C112" s="11"/>
       <c r="D112" s="11"/>
       <c r="E112" s="11"/>
     </row>
-    <row r="113" spans="2:2" s="11" customFormat="1" ht="21.95" customHeight="1">
+    <row r="113" spans="2:2" s="11" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B113" s="38"/>
     </row>
-    <row r="114" spans="2:2" s="11" customFormat="1" ht="21.95" customHeight="1">
+    <row r="114" spans="2:2" s="11" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B114" s="38"/>
     </row>
-    <row r="115" spans="2:2" s="11" customFormat="1">
+    <row r="115" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B115" s="38"/>
     </row>
-    <row r="116" spans="2:2" s="11" customFormat="1">
+    <row r="116" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B116" s="38"/>
     </row>
-    <row r="117" spans="2:2" s="11" customFormat="1">
+    <row r="117" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B117" s="38"/>
     </row>
-    <row r="118" spans="2:2" s="11" customFormat="1">
+    <row r="118" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B118" s="38"/>
     </row>
-    <row r="119" spans="2:2" s="11" customFormat="1">
+    <row r="119" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B119" s="38"/>
     </row>
-    <row r="120" spans="2:2" s="11" customFormat="1">
+    <row r="120" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B120" s="38"/>
     </row>
-    <row r="121" spans="2:2" s="11" customFormat="1">
+    <row r="121" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B121" s="38"/>
     </row>
-    <row r="122" spans="2:2" s="11" customFormat="1">
+    <row r="122" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B122" s="38"/>
     </row>
-    <row r="123" spans="2:2" s="11" customFormat="1">
+    <row r="123" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B123" s="38"/>
     </row>
-    <row r="124" spans="2:2" s="11" customFormat="1">
+    <row r="124" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B124" s="38"/>
     </row>
-    <row r="125" spans="2:2" s="11" customFormat="1">
+    <row r="125" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B125" s="38"/>
     </row>
-    <row r="126" spans="2:2" s="11" customFormat="1">
+    <row r="126" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B126" s="38"/>
     </row>
-    <row r="127" spans="2:2" s="11" customFormat="1">
+    <row r="127" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B127" s="38"/>
     </row>
-    <row r="128" spans="2:2" s="11" customFormat="1">
+    <row r="128" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B128" s="38"/>
     </row>
-    <row r="129" spans="2:2" s="11" customFormat="1">
+    <row r="129" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B129" s="38"/>
     </row>
-    <row r="130" spans="2:2" s="11" customFormat="1">
+    <row r="130" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B130" s="38"/>
     </row>
-    <row r="131" spans="2:2" s="11" customFormat="1">
+    <row r="131" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B131" s="38"/>
     </row>
-    <row r="132" spans="2:2" s="11" customFormat="1">
+    <row r="132" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B132" s="40"/>
     </row>
-    <row r="133" spans="2:2" s="11" customFormat="1">
+    <row r="133" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B133" s="38"/>
     </row>
-    <row r="134" spans="2:2" s="11" customFormat="1">
+    <row r="134" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B134" s="38"/>
     </row>
-    <row r="135" spans="2:2" s="11" customFormat="1">
+    <row r="135" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B135" s="38"/>
     </row>
-    <row r="136" spans="2:2" s="11" customFormat="1">
+    <row r="136" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B136" s="38"/>
     </row>
-    <row r="137" spans="2:2" s="11" customFormat="1">
+    <row r="137" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B137" s="38"/>
     </row>
-    <row r="138" spans="2:2" s="11" customFormat="1">
+    <row r="138" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B138" s="38"/>
     </row>
-    <row r="139" spans="2:2" s="11" customFormat="1">
+    <row r="139" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B139" s="38"/>
     </row>
-    <row r="140" spans="2:2" s="11" customFormat="1">
+    <row r="140" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B140" s="38"/>
     </row>
-    <row r="141" spans="2:2" s="11" customFormat="1">
+    <row r="141" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B141" s="38"/>
     </row>
-    <row r="142" spans="2:2" s="11" customFormat="1">
+    <row r="142" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B142" s="40"/>
     </row>
-    <row r="143" spans="2:2" s="11" customFormat="1">
+    <row r="143" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B143" s="38"/>
     </row>
-    <row r="144" spans="2:2" s="11" customFormat="1">
+    <row r="144" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B144" s="38"/>
     </row>
-    <row r="145" spans="2:2" s="11" customFormat="1">
+    <row r="145" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B145" s="38"/>
     </row>
-    <row r="146" spans="2:2" s="11" customFormat="1">
+    <row r="146" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B146" s="38"/>
     </row>
-    <row r="147" spans="2:2" s="11" customFormat="1">
+    <row r="147" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B147" s="38"/>
     </row>
-    <row r="148" spans="2:2" s="11" customFormat="1">
+    <row r="148" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B148" s="38"/>
     </row>
-    <row r="149" spans="2:2" s="11" customFormat="1">
+    <row r="149" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B149" s="38"/>
     </row>
-    <row r="150" spans="2:2" s="11" customFormat="1">
+    <row r="150" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B150" s="38"/>
     </row>
-    <row r="151" spans="2:2" s="11" customFormat="1">
+    <row r="151" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B151" s="38"/>
     </row>
-    <row r="152" spans="2:2" s="11" customFormat="1">
+    <row r="152" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B152" s="38"/>
     </row>
-    <row r="153" spans="2:2" s="11" customFormat="1">
+    <row r="153" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B153" s="41"/>
     </row>
-    <row r="154" spans="2:2" s="11" customFormat="1">
+    <row r="154" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B154" s="38"/>
     </row>
-    <row r="155" spans="2:2" s="11" customFormat="1">
+    <row r="155" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B155" s="38"/>
     </row>
-    <row r="156" spans="2:2" s="11" customFormat="1">
+    <row r="156" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B156" s="38"/>
     </row>
-    <row r="157" spans="2:2" s="11" customFormat="1">
+    <row r="157" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B157" s="38"/>
     </row>
-    <row r="158" spans="2:2" s="11" customFormat="1">
+    <row r="158" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B158" s="38"/>
     </row>
-    <row r="159" spans="2:2" s="11" customFormat="1">
+    <row r="159" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B159" s="38"/>
     </row>
-    <row r="160" spans="2:2" s="11" customFormat="1">
+    <row r="160" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B160" s="40"/>
     </row>
-    <row r="161" spans="2:2" s="11" customFormat="1">
+    <row r="161" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B161" s="38"/>
     </row>
-    <row r="162" spans="2:2" s="11" customFormat="1">
+    <row r="162" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B162" s="38"/>
     </row>
-    <row r="163" spans="2:2" s="11" customFormat="1">
+    <row r="163" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B163" s="38"/>
     </row>
-    <row r="164" spans="2:2" s="11" customFormat="1">
+    <row r="164" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B164" s="38"/>
     </row>
-    <row r="165" spans="2:2" s="11" customFormat="1">
+    <row r="165" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B165" s="38"/>
     </row>
-    <row r="166" spans="2:2" s="11" customFormat="1">
+    <row r="166" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B166" s="38"/>
     </row>
-    <row r="167" spans="2:2" s="11" customFormat="1">
+    <row r="167" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B167" s="40"/>
     </row>
-    <row r="168" spans="2:2" s="11" customFormat="1">
+    <row r="168" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B168" s="38"/>
     </row>
-    <row r="169" spans="2:2" s="11" customFormat="1">
+    <row r="169" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B169" s="38"/>
     </row>
-    <row r="170" spans="2:2" s="11" customFormat="1">
+    <row r="170" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B170" s="38"/>
     </row>
-    <row r="171" spans="2:2" s="11" customFormat="1">
+    <row r="171" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B171" s="38"/>
     </row>
-    <row r="172" spans="2:2" s="11" customFormat="1">
+    <row r="172" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B172" s="38"/>
     </row>
-    <row r="173" spans="2:2" s="11" customFormat="1">
+    <row r="173" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B173" s="38"/>
     </row>
-    <row r="174" spans="2:2" s="11" customFormat="1">
+    <row r="174" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B174" s="38"/>
     </row>
-    <row r="175" spans="2:2" s="11" customFormat="1">
+    <row r="175" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B175" s="38"/>
     </row>
-    <row r="176" spans="2:2" s="11" customFormat="1">
+    <row r="176" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B176" s="38"/>
     </row>
-    <row r="177" spans="2:2" s="11" customFormat="1">
+    <row r="177" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B177" s="38"/>
     </row>
-    <row r="178" spans="2:2" s="11" customFormat="1">
+    <row r="178" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B178" s="38"/>
     </row>
-    <row r="179" spans="2:2" s="11" customFormat="1">
+    <row r="179" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B179" s="38"/>
     </row>
-    <row r="180" spans="2:2" s="11" customFormat="1">
+    <row r="180" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B180" s="38"/>
     </row>
-    <row r="181" spans="2:2" s="11" customFormat="1">
+    <row r="181" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B181" s="38"/>
     </row>
-    <row r="182" spans="2:2" s="11" customFormat="1">
+    <row r="182" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B182" s="38"/>
     </row>
-    <row r="183" spans="2:2" s="11" customFormat="1">
+    <row r="183" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B183" s="38"/>
     </row>
-    <row r="184" spans="2:2" s="11" customFormat="1">
+    <row r="184" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B184" s="38"/>
     </row>
-    <row r="185" spans="2:2" s="11" customFormat="1">
+    <row r="185" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B185" s="42"/>
     </row>
-    <row r="186" spans="2:2" s="11" customFormat="1">
+    <row r="186" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B186" s="38"/>
     </row>
-    <row r="187" spans="2:2" s="11" customFormat="1">
+    <row r="187" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B187" s="38"/>
     </row>
-    <row r="188" spans="2:2" s="11" customFormat="1">
+    <row r="188" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B188" s="38"/>
     </row>
-    <row r="189" spans="2:2" s="11" customFormat="1">
+    <row r="189" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B189" s="38"/>
     </row>
-    <row r="190" spans="2:2" s="11" customFormat="1">
+    <row r="190" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B190" s="38"/>
     </row>
-    <row r="191" spans="2:2" s="11" customFormat="1">
+    <row r="191" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B191" s="38"/>
     </row>
-    <row r="192" spans="2:2" s="11" customFormat="1">
+    <row r="192" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B192" s="38"/>
     </row>
-    <row r="193" spans="2:2" s="11" customFormat="1">
+    <row r="193" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B193" s="38"/>
     </row>
-    <row r="194" spans="2:2" s="11" customFormat="1">
+    <row r="194" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B194" s="38"/>
     </row>
-    <row r="195" spans="2:2" s="11" customFormat="1">
+    <row r="195" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B195" s="38"/>
     </row>
-    <row r="196" spans="2:2" s="11" customFormat="1">
+    <row r="196" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B196" s="38"/>
     </row>
-    <row r="197" spans="2:2" s="11" customFormat="1">
+    <row r="197" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B197" s="38"/>
     </row>
-    <row r="198" spans="2:2" s="11" customFormat="1">
+    <row r="198" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B198" s="38"/>
     </row>
-    <row r="199" spans="2:2" s="11" customFormat="1">
+    <row r="199" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B199" s="38"/>
     </row>
-    <row r="200" spans="2:2" s="11" customFormat="1">
+    <row r="200" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B200" s="38"/>
     </row>
-    <row r="201" spans="2:2" s="11" customFormat="1">
+    <row r="201" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B201" s="40"/>
     </row>
-    <row r="202" spans="2:2" s="11" customFormat="1">
+    <row r="202" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B202" s="38"/>
     </row>
-    <row r="203" spans="2:2" s="11" customFormat="1">
+    <row r="203" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B203" s="38"/>
     </row>
-    <row r="204" spans="2:2" s="11" customFormat="1">
+    <row r="204" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B204" s="38"/>
     </row>
-    <row r="205" spans="2:2" s="11" customFormat="1">
+    <row r="205" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B205" s="38"/>
     </row>
-    <row r="206" spans="2:2" s="11" customFormat="1">
+    <row r="206" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B206" s="38"/>
     </row>
-    <row r="207" spans="2:2" s="11" customFormat="1">
+    <row r="207" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B207" s="38"/>
     </row>
-    <row r="208" spans="2:2" s="11" customFormat="1">
+    <row r="208" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B208" s="35"/>
     </row>
-    <row r="209" spans="2:2" s="11" customFormat="1">
+    <row r="209" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B209" s="35"/>
     </row>
-    <row r="210" spans="2:2" s="11" customFormat="1">
+    <row r="210" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B210" s="35"/>
     </row>
-    <row r="211" spans="2:2" s="11" customFormat="1">
+    <row r="211" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B211" s="35"/>
     </row>
-    <row r="212" spans="2:2" s="11" customFormat="1">
+    <row r="212" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B212" s="35"/>
     </row>
-    <row r="213" spans="2:2" s="11" customFormat="1">
+    <row r="213" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B213" s="35"/>
     </row>
-    <row r="214" spans="2:2" s="11" customFormat="1">
+    <row r="214" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B214" s="35"/>
     </row>
-    <row r="215" spans="2:2" s="11" customFormat="1">
+    <row r="215" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B215" s="35"/>
     </row>
-    <row r="216" spans="2:2" s="11" customFormat="1">
+    <row r="216" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B216" s="35"/>
     </row>
-    <row r="217" spans="2:2" s="11" customFormat="1">
+    <row r="217" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B217" s="35"/>
     </row>
-    <row r="218" spans="2:2" s="11" customFormat="1">
+    <row r="218" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B218" s="35"/>
     </row>
-    <row r="219" spans="2:2" s="11" customFormat="1">
+    <row r="219" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B219" s="35"/>
     </row>
-    <row r="220" spans="2:2" s="11" customFormat="1">
+    <row r="220" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B220" s="35"/>
     </row>
-    <row r="221" spans="2:2" s="11" customFormat="1">
+    <row r="221" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B221" s="35"/>
     </row>
-    <row r="222" spans="2:2" s="11" customFormat="1">
+    <row r="222" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B222" s="35"/>
     </row>
-    <row r="223" spans="2:2" s="11" customFormat="1">
+    <row r="223" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B223" s="35"/>
     </row>
-    <row r="224" spans="2:2" s="11" customFormat="1">
+    <row r="224" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B224" s="35"/>
     </row>
-    <row r="225" spans="2:2" s="11" customFormat="1">
+    <row r="225" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B225" s="35"/>
     </row>
-    <row r="226" spans="2:2" s="11" customFormat="1">
+    <row r="226" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B226" s="35"/>
     </row>
-    <row r="227" spans="2:2" s="11" customFormat="1">
+    <row r="227" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B227" s="35"/>
     </row>
-    <row r="228" spans="2:2" s="11" customFormat="1">
+    <row r="228" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B228" s="35"/>
     </row>
-    <row r="229" spans="2:2" s="11" customFormat="1">
+    <row r="229" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B229" s="35"/>
     </row>
-    <row r="230" spans="2:2" s="11" customFormat="1">
+    <row r="230" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B230" s="35"/>
     </row>
-    <row r="231" spans="2:2" s="11" customFormat="1">
+    <row r="231" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B231" s="35"/>
     </row>
-    <row r="232" spans="2:2" s="11" customFormat="1">
+    <row r="232" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B232" s="35"/>
     </row>
-    <row r="233" spans="2:2" s="11" customFormat="1">
+    <row r="233" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B233" s="35"/>
     </row>
-    <row r="234" spans="2:2" s="11" customFormat="1">
+    <row r="234" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B234" s="35"/>
     </row>
-    <row r="235" spans="2:2" s="11" customFormat="1">
+    <row r="235" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B235" s="35"/>
     </row>
-    <row r="236" spans="2:2" s="11" customFormat="1">
+    <row r="236" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B236" s="35"/>
     </row>
-    <row r="237" spans="2:2" s="11" customFormat="1">
+    <row r="237" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B237" s="35"/>
     </row>
-    <row r="238" spans="2:2" s="11" customFormat="1">
+    <row r="238" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B238" s="35"/>
     </row>
-    <row r="239" spans="2:2" s="11" customFormat="1">
+    <row r="239" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B239" s="35"/>
     </row>
-    <row r="240" spans="2:2" s="11" customFormat="1">
+    <row r="240" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B240" s="35"/>
     </row>
-    <row r="241" spans="2:2" s="11" customFormat="1">
+    <row r="241" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B241" s="35"/>
     </row>
-    <row r="242" spans="2:2" s="11" customFormat="1">
+    <row r="242" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B242" s="35"/>
     </row>
-    <row r="243" spans="2:2" s="11" customFormat="1">
+    <row r="243" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B243" s="35"/>
     </row>
-    <row r="244" spans="2:2" s="11" customFormat="1">
+    <row r="244" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B244" s="35"/>
     </row>
-    <row r="245" spans="2:2" s="11" customFormat="1">
+    <row r="245" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B245" s="35"/>
     </row>
-    <row r="246" spans="2:2" s="11" customFormat="1">
+    <row r="246" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B246" s="35"/>
     </row>
-    <row r="247" spans="2:2" s="11" customFormat="1">
+    <row r="247" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B247" s="35"/>
     </row>
-    <row r="248" spans="2:2" s="11" customFormat="1">
+    <row r="248" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B248" s="35"/>
     </row>
-    <row r="249" spans="2:2" s="11" customFormat="1">
+    <row r="249" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B249" s="35"/>
     </row>
-    <row r="250" spans="2:2" s="11" customFormat="1">
+    <row r="250" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B250" s="35"/>
     </row>
-    <row r="251" spans="2:2" s="11" customFormat="1">
+    <row r="251" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B251" s="35"/>
     </row>
-    <row r="252" spans="2:2" s="11" customFormat="1">
+    <row r="252" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B252" s="35"/>
     </row>
-    <row r="253" spans="2:2" s="11" customFormat="1">
+    <row r="253" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B253" s="35"/>
     </row>
-    <row r="254" spans="2:2" s="11" customFormat="1">
+    <row r="254" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B254" s="35"/>
     </row>
-    <row r="255" spans="2:2" s="11" customFormat="1">
+    <row r="255" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B255" s="35"/>
     </row>
-    <row r="256" spans="2:2" s="11" customFormat="1">
+    <row r="256" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B256" s="35"/>
     </row>
-    <row r="257" spans="2:2" s="11" customFormat="1">
+    <row r="257" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B257" s="35"/>
     </row>
-    <row r="258" spans="2:2" s="11" customFormat="1">
+    <row r="258" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B258" s="35"/>
     </row>
-    <row r="259" spans="2:2" s="11" customFormat="1">
+    <row r="259" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B259" s="35"/>
     </row>
-    <row r="260" spans="2:2" s="11" customFormat="1">
+    <row r="260" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B260" s="35"/>
     </row>
-    <row r="261" spans="2:2" s="11" customFormat="1">
+    <row r="261" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B261" s="35"/>
     </row>
-    <row r="262" spans="2:2" s="11" customFormat="1">
+    <row r="262" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B262" s="35"/>
     </row>
-    <row r="263" spans="2:2" s="11" customFormat="1">
+    <row r="263" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B263" s="35"/>
     </row>
-    <row r="264" spans="2:2" s="11" customFormat="1">
+    <row r="264" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B264" s="35"/>
     </row>
-    <row r="265" spans="2:2" s="11" customFormat="1">
+    <row r="265" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B265" s="35"/>
     </row>
-    <row r="266" spans="2:2" s="11" customFormat="1">
+    <row r="266" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B266" s="35"/>
     </row>
-    <row r="267" spans="2:2" s="11" customFormat="1">
+    <row r="267" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B267" s="35"/>
     </row>
-    <row r="268" spans="2:2" s="11" customFormat="1">
+    <row r="268" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B268" s="35"/>
     </row>
-    <row r="269" spans="2:2" s="11" customFormat="1">
+    <row r="269" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B269" s="35"/>
     </row>
-    <row r="270" spans="2:2" s="11" customFormat="1">
+    <row r="270" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B270" s="35"/>
     </row>
-    <row r="271" spans="2:2" s="11" customFormat="1">
+    <row r="271" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B271" s="35"/>
     </row>
-    <row r="272" spans="2:2" s="11" customFormat="1">
+    <row r="272" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B272" s="35"/>
     </row>
-    <row r="273" spans="2:2" s="11" customFormat="1">
+    <row r="273" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B273" s="35"/>
     </row>
-    <row r="274" spans="2:2" s="11" customFormat="1">
+    <row r="274" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B274" s="35"/>
     </row>
-    <row r="275" spans="2:2" s="11" customFormat="1">
+    <row r="275" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B275" s="35"/>
     </row>
-    <row r="276" spans="2:2" s="11" customFormat="1">
+    <row r="276" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B276" s="35"/>
     </row>
-    <row r="277" spans="2:2" s="11" customFormat="1">
+    <row r="277" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B277" s="35"/>
     </row>
-    <row r="278" spans="2:2" s="11" customFormat="1">
+    <row r="278" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B278" s="35"/>
     </row>
-    <row r="279" spans="2:2" s="11" customFormat="1">
+    <row r="279" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B279" s="35"/>
     </row>
-    <row r="280" spans="2:2" s="11" customFormat="1">
+    <row r="280" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B280" s="35"/>
     </row>
-    <row r="281" spans="2:2" s="11" customFormat="1">
+    <row r="281" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B281" s="35"/>
     </row>
-    <row r="282" spans="2:2" s="11" customFormat="1">
+    <row r="282" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B282" s="35"/>
     </row>
-    <row r="283" spans="2:2" s="11" customFormat="1">
+    <row r="283" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B283" s="35"/>
     </row>
-    <row r="284" spans="2:2" s="11" customFormat="1">
+    <row r="284" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B284" s="35"/>
     </row>
-    <row r="285" spans="2:2" s="11" customFormat="1">
+    <row r="285" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B285" s="35"/>
     </row>
-    <row r="286" spans="2:2" s="11" customFormat="1">
+    <row r="286" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B286" s="35"/>
     </row>
-    <row r="287" spans="2:2" s="11" customFormat="1">
+    <row r="287" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B287" s="35"/>
     </row>
-    <row r="288" spans="2:2" s="11" customFormat="1">
+    <row r="288" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B288" s="35"/>
     </row>
-    <row r="289" spans="2:2" s="11" customFormat="1">
+    <row r="289" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B289" s="35"/>
     </row>
-    <row r="290" spans="2:2" s="11" customFormat="1">
+    <row r="290" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B290" s="35"/>
     </row>
-    <row r="291" spans="2:2" s="11" customFormat="1">
+    <row r="291" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B291" s="35"/>
     </row>
-    <row r="292" spans="2:2" s="11" customFormat="1">
+    <row r="292" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B292" s="35"/>
     </row>
-    <row r="293" spans="2:2" s="11" customFormat="1">
+    <row r="293" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B293" s="35"/>
     </row>
-    <row r="294" spans="2:2" s="11" customFormat="1">
+    <row r="294" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B294" s="35"/>
     </row>
-    <row r="295" spans="2:2" s="11" customFormat="1">
+    <row r="295" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B295" s="35"/>
     </row>
-    <row r="296" spans="2:2" s="11" customFormat="1">
+    <row r="296" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B296" s="35"/>
     </row>
-    <row r="297" spans="2:2" s="11" customFormat="1">
+    <row r="297" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B297" s="35"/>
     </row>
-    <row r="298" spans="2:2" s="11" customFormat="1">
+    <row r="298" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B298" s="35"/>
     </row>
-    <row r="299" spans="2:2" s="11" customFormat="1">
+    <row r="299" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B299" s="35"/>
     </row>
-    <row r="300" spans="2:2" s="11" customFormat="1">
+    <row r="300" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B300" s="35"/>
     </row>
-    <row r="301" spans="2:2" s="11" customFormat="1">
+    <row r="301" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B301" s="35"/>
     </row>
-    <row r="302" spans="2:2" s="11" customFormat="1">
+    <row r="302" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B302" s="35"/>
     </row>
-    <row r="303" spans="2:2" s="11" customFormat="1">
+    <row r="303" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B303" s="35"/>
     </row>
-    <row r="304" spans="2:2" s="11" customFormat="1">
+    <row r="304" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B304" s="35"/>
     </row>
   </sheetData>
